--- a/1_calculation_scripts/1_7_co/results/mie_results_vle_fluid.xlsx
+++ b/1_calculation_scripts/1_7_co/results/mie_results_vle_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.6950229006622114</v>
       </c>
       <c r="D2">
-        <v>136.591372514063</v>
+        <v>136.5913725140576</v>
       </c>
       <c r="E2">
-        <v>4315133.825909539</v>
+        <v>4315133.825908529</v>
       </c>
       <c r="F2">
-        <v>11611.43137074271</v>
+        <v>11611.43137074113</v>
       </c>
       <c r="G2">
         <v>3.692961106263277</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>50.516175725443</v>
       </c>
@@ -585,4066 +597,4666 @@
         <v>0.1541707376765646</v>
       </c>
       <c r="M2">
+        <v>0.1541705846047361</v>
+      </c>
+      <c r="N2">
         <v>1793.463996106895</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>1.530718285029616E-07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>51.38560836054295</v>
+        <v>51.3856083605429</v>
       </c>
       <c r="B3">
-        <v>207.0026381610452</v>
+        <v>207.00263816104</v>
       </c>
       <c r="C3">
-        <v>0.4846414904559749</v>
+        <v>0.4846414904559633</v>
       </c>
       <c r="D3">
-        <v>34680.69012580373</v>
+        <v>34680.69012580375</v>
       </c>
       <c r="E3">
-        <v>8189.521845323832</v>
+        <v>8189.521845323846</v>
       </c>
       <c r="F3">
-        <v>7762.40252207393</v>
+        <v>7762.402522073943</v>
       </c>
       <c r="G3">
-        <v>20.21892519363982</v>
+        <v>20.21892519363956</v>
       </c>
       <c r="H3">
-        <v>131.9923759695429</v>
+        <v>131.9923759695431</v>
       </c>
       <c r="I3">
-        <v>1.424865910793509E-09</v>
+        <v>1.424865910793507E-09</v>
       </c>
       <c r="J3">
-        <v>6.088288185473205E-10</v>
+        <v>6.08828818547319E-10</v>
       </c>
       <c r="K3">
-        <v>0.0007936816878965591</v>
+        <v>0.000793681687896558</v>
       </c>
       <c r="L3">
-        <v>0.152793814250879</v>
+        <v>0.1527938142508791</v>
       </c>
       <c r="M3">
-        <v>1684.623812785298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.1527936584074429</v>
+      </c>
+      <c r="N3">
+        <v>1684.623812785305</v>
+      </c>
+      <c r="O3">
+        <v>1.558434361348866E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>52.2550409956429</v>
+        <v>52.25504099564279</v>
       </c>
       <c r="B4">
-        <v>284.1684981479271</v>
+        <v>284.1684981479139</v>
       </c>
       <c r="C4">
-        <v>0.6542917165753883</v>
+        <v>0.6542917165753592</v>
       </c>
       <c r="D4">
-        <v>34363.67488590282</v>
+        <v>34363.67488590286</v>
       </c>
       <c r="E4">
-        <v>8076.785646218728</v>
+        <v>8076.785646218748</v>
       </c>
       <c r="F4">
-        <v>7642.479234690783</v>
+        <v>7642.479234690808</v>
       </c>
       <c r="G4">
-        <v>22.62926761099345</v>
+        <v>22.62926761099313</v>
       </c>
       <c r="H4">
-        <v>127.0526485692131</v>
+        <v>127.0526485692137</v>
       </c>
       <c r="I4">
-        <v>1.453803651955745E-09</v>
+        <v>1.453803651955739E-09</v>
       </c>
       <c r="J4">
-        <v>6.259952966575073E-10</v>
+        <v>6.259952966575049E-10</v>
       </c>
       <c r="K4">
-        <v>0.000793861676622644</v>
+        <v>0.0007938616766226444</v>
       </c>
       <c r="L4">
-        <v>0.1515697246642624</v>
+        <v>0.1515697246642626</v>
       </c>
       <c r="M4">
-        <v>1603.125905101863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.1515695658914074</v>
+      </c>
+      <c r="N4">
+        <v>1603.125905101875</v>
+      </c>
+      <c r="O4">
+        <v>1.587728551328788E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>53.12447363074284</v>
+        <v>53.12447363074268</v>
       </c>
       <c r="B5">
-        <v>384.4816935767081</v>
+        <v>384.4816935766792</v>
       </c>
       <c r="C5">
-        <v>0.8708653983376736</v>
+        <v>0.8708653983376107</v>
       </c>
       <c r="D5">
-        <v>34060.02454145283</v>
+        <v>34060.02454145288</v>
       </c>
       <c r="E5">
-        <v>7968.399236204663</v>
+        <v>7968.39923620468</v>
       </c>
       <c r="F5">
-        <v>7526.916702080629</v>
+        <v>7526.916702080648</v>
       </c>
       <c r="G5">
-        <v>24.249821750619</v>
+        <v>24.24982175061868</v>
       </c>
       <c r="H5">
-        <v>121.9391870373471</v>
+        <v>121.9391870373481</v>
       </c>
       <c r="I5">
-        <v>1.482938369394912E-09</v>
+        <v>1.482938369394907E-09</v>
       </c>
       <c r="J5">
-        <v>6.438923155799148E-10</v>
+        <v>6.43892315579911E-10</v>
       </c>
       <c r="K5">
-        <v>0.0007919779390839285</v>
+        <v>0.0007919779390839299</v>
       </c>
       <c r="L5">
-        <v>0.1504881929870157</v>
+        <v>0.1504881929870159</v>
       </c>
       <c r="M5">
-        <v>1539.573232473035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.1504880311179795</v>
+      </c>
+      <c r="N5">
+        <v>1539.573232473047</v>
+      </c>
+      <c r="O5">
+        <v>1.618690364363772E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>53.9939062658428</v>
+        <v>53.99390626584258</v>
       </c>
       <c r="B6">
-        <v>513.1930970668217</v>
+        <v>513.1930970667865</v>
       </c>
       <c r="C6">
-        <v>1.143833073734513</v>
+        <v>1.14383307373444</v>
       </c>
       <c r="D6">
-        <v>33768.81184159823</v>
+        <v>33768.81184159831</v>
       </c>
       <c r="E6">
-        <v>7864.466758908803</v>
+        <v>7864.466758908823</v>
       </c>
       <c r="F6">
-        <v>7415.821125436946</v>
+        <v>7415.821125436967</v>
       </c>
       <c r="G6">
-        <v>25.22980464701767</v>
+        <v>25.22980464701744</v>
       </c>
       <c r="H6">
-        <v>116.7454380163363</v>
+        <v>116.7454380163377</v>
       </c>
       <c r="I6">
-        <v>1.512326633317308E-09</v>
+        <v>1.512326633317299E-09</v>
       </c>
       <c r="J6">
-        <v>6.625744570379013E-10</v>
+        <v>6.625744570378957E-10</v>
       </c>
       <c r="K6">
-        <v>0.0007879682016046358</v>
+        <v>0.0007879682016046378</v>
       </c>
       <c r="L6">
-        <v>0.1495375082529622</v>
+        <v>0.1495375082529625</v>
       </c>
       <c r="M6">
-        <v>1488.442336767292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.1495373431115281</v>
+      </c>
+      <c r="N6">
+        <v>1488.442336767305</v>
+      </c>
+      <c r="O6">
+        <v>1.651414343527576E-07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>54.86333890094274</v>
+        <v>54.86333890094247</v>
       </c>
       <c r="B7">
-        <v>676.3468987313065</v>
+        <v>676.3468987312424</v>
       </c>
       <c r="C7">
-        <v>1.483823336339392</v>
+        <v>1.483823336339259</v>
       </c>
       <c r="D7">
-        <v>33489.17861890008</v>
+        <v>33489.17861890017</v>
       </c>
       <c r="E7">
-        <v>7765.017675876265</v>
+        <v>7765.017675876301</v>
       </c>
       <c r="F7">
-        <v>7309.224243531398</v>
+        <v>7309.224243531439</v>
       </c>
       <c r="G7">
-        <v>25.69687770034639</v>
+        <v>25.69687770034625</v>
       </c>
       <c r="H7">
-        <v>111.5487660645259</v>
+        <v>111.5487660645276</v>
       </c>
       <c r="I7">
-        <v>1.542026429644454E-09</v>
+        <v>1.542026429644445E-09</v>
       </c>
       <c r="J7">
-        <v>6.820992000138887E-10</v>
+        <v>6.820992000138829E-10</v>
       </c>
       <c r="K7">
-        <v>0.0007817841569195647</v>
+        <v>0.000781784156919566</v>
       </c>
       <c r="L7">
-        <v>0.1487049485647749</v>
+        <v>0.1487049485647751</v>
       </c>
       <c r="M7">
-        <v>1446.251728887082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.1487047799647562</v>
+      </c>
+      <c r="N7">
+        <v>1446.251728887096</v>
+      </c>
+      <c r="O7">
+        <v>1.686000188454981E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>55.73277153604268</v>
+        <v>55.73277153604236</v>
       </c>
       <c r="B8">
-        <v>880.8330146482981</v>
+        <v>880.8330146482142</v>
       </c>
       <c r="C8">
-        <v>1.902652797317837</v>
+        <v>1.902652797317667</v>
       </c>
       <c r="D8">
-        <v>33220.32979942785</v>
+        <v>33220.32979942795</v>
       </c>
       <c r="E8">
-        <v>7670.020059049089</v>
+        <v>7670.020059049124</v>
       </c>
       <c r="F8">
-        <v>7207.096625364057</v>
+        <v>7207.096625364091</v>
       </c>
       <c r="G8">
-        <v>25.75928351217833</v>
+        <v>25.7592835121784</v>
       </c>
       <c r="H8">
-        <v>106.4120319287812</v>
+        <v>106.4120319287831</v>
       </c>
       <c r="I8">
-        <v>1.572097033843135E-09</v>
+        <v>1.572097033843127E-09</v>
       </c>
       <c r="J8">
-        <v>7.025270223838729E-10</v>
+        <v>7.025270223838654E-10</v>
       </c>
       <c r="K8">
-        <v>0.000773393899589102</v>
+        <v>0.0007733938995891051</v>
       </c>
       <c r="L8">
-        <v>0.1479772146244452</v>
+        <v>0.1479772146244455</v>
       </c>
       <c r="M8">
-        <v>1410.686622795005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.1479770423691601</v>
+      </c>
+      <c r="N8">
+        <v>1410.686622795016</v>
+      </c>
+      <c r="O8">
+        <v>1.72255285338292E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>56.60220417114264</v>
+        <v>56.60220417114225</v>
       </c>
       <c r="B9">
-        <v>1134.435782271002</v>
+        <v>1134.435782270911</v>
       </c>
       <c r="C9">
-        <v>2.413347380168811</v>
+        <v>2.413347380168634</v>
       </c>
       <c r="D9">
-        <v>32961.5279887702</v>
+        <v>32961.5279887703</v>
       </c>
       <c r="E9">
-        <v>7579.392476685339</v>
+        <v>7579.392476685371</v>
       </c>
       <c r="F9">
-        <v>7109.359554154957</v>
+        <v>7109.359554154986</v>
       </c>
       <c r="G9">
-        <v>25.50799514452802</v>
+        <v>25.50799514452827</v>
       </c>
       <c r="H9">
-        <v>101.3852409556053</v>
+        <v>101.3852409556074</v>
       </c>
       <c r="I9">
-        <v>1.602598924221213E-09</v>
+        <v>1.602598924221204E-09</v>
       </c>
       <c r="J9">
-        <v>7.239214935800091E-10</v>
+        <v>7.239214935800005E-10</v>
       </c>
       <c r="K9">
-        <v>0.0007627853501292845</v>
+        <v>0.0007627853501292883</v>
       </c>
       <c r="L9">
-        <v>0.1473408488939305</v>
+        <v>0.1473408488939307</v>
       </c>
       <c r="M9">
-        <v>1380.141706326178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.1473406727756691</v>
+      </c>
+      <c r="N9">
+        <v>1380.141706326187</v>
+      </c>
+      <c r="O9">
+        <v>1.761182615902914E-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>57.47163680624259</v>
+        <v>57.47163680624215</v>
       </c>
       <c r="B10">
-        <v>1445.878641958975</v>
+        <v>1445.878641958775</v>
       </c>
       <c r="C10">
-        <v>3.030155579616715</v>
+        <v>3.030155579616319</v>
       </c>
       <c r="D10">
-        <v>32712.08857198561</v>
+        <v>32712.08857198573</v>
       </c>
       <c r="E10">
-        <v>7493.014449618203</v>
+        <v>7493.014449618244</v>
       </c>
       <c r="F10">
-        <v>7015.895479750067</v>
+        <v>7015.895479750112</v>
       </c>
       <c r="G10">
-        <v>25.01880193579808</v>
+        <v>25.01880193579846</v>
       </c>
       <c r="H10">
-        <v>96.50718000371256</v>
+        <v>96.50718000371512</v>
       </c>
       <c r="I10">
-        <v>1.633593734272697E-09</v>
+        <v>1.633593734272681E-09</v>
       </c>
       <c r="J10">
-        <v>7.463493557666096E-10</v>
+        <v>7.463493557665982E-10</v>
       </c>
       <c r="K10">
-        <v>0.0007499705685322011</v>
+        <v>0.0007499705685322078</v>
       </c>
       <c r="L10">
-        <v>0.1467826192581238</v>
+        <v>0.1467826192581241</v>
       </c>
       <c r="M10">
-        <v>1353.465242818954</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.1467824390576129</v>
+      </c>
+      <c r="N10">
+        <v>1353.465242818966</v>
+      </c>
+      <c r="O10">
+        <v>1.802005111527082E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>58.34106944134253</v>
+        <v>58.34106944134204</v>
       </c>
       <c r="B11">
-        <v>1824.864588916285</v>
+        <v>1824.864588916037</v>
       </c>
       <c r="C11">
-        <v>3.768554432128585</v>
+        <v>3.768554432128105</v>
       </c>
       <c r="D11">
-        <v>32471.3752729296</v>
+        <v>32471.37527292974</v>
       </c>
       <c r="E11">
-        <v>7410.735514886052</v>
+        <v>7410.735514886096</v>
       </c>
       <c r="F11">
-        <v>6926.557076674941</v>
+        <v>6926.557076674993</v>
       </c>
       <c r="G11">
-        <v>24.35427973003766</v>
+        <v>24.35427973003825</v>
       </c>
       <c r="H11">
-        <v>91.80698545595692</v>
+        <v>91.80698545595968</v>
       </c>
       <c r="I11">
-        <v>1.665144243214608E-09</v>
+        <v>1.665144243214587E-09</v>
       </c>
       <c r="J11">
-        <v>7.698805907880648E-10</v>
+        <v>7.6988059078805E-10</v>
       </c>
       <c r="K11">
-        <v>0.0007349906953220388</v>
+        <v>0.0007349906953220493</v>
       </c>
       <c r="L11">
-        <v>0.1462898506283076</v>
+        <v>0.1462898506283079</v>
       </c>
       <c r="M11">
-        <v>1329.807749421519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.146289666114175</v>
+      </c>
+      <c r="N11">
+        <v>1329.807749421531</v>
+      </c>
+      <c r="O11">
+        <v>1.845141328750238E-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>59.21050207644249</v>
+        <v>59.21050207644193</v>
       </c>
       <c r="B12">
-        <v>2282.112252300846</v>
+        <v>2282.112252300525</v>
       </c>
       <c r="C12">
-        <v>4.645249014931401</v>
+        <v>4.645249014930791</v>
       </c>
       <c r="D12">
-        <v>32238.79612483211</v>
+        <v>32238.79612483226</v>
       </c>
       <c r="E12">
-        <v>7332.382974712175</v>
+        <v>7332.382974712224</v>
       </c>
       <c r="F12">
-        <v>6841.174986036744</v>
+        <v>6841.174986036802</v>
       </c>
       <c r="G12">
-        <v>23.5656126514407</v>
+        <v>23.56561265144141</v>
       </c>
       <c r="H12">
-        <v>87.30560468719716</v>
+        <v>87.30560468720017</v>
       </c>
       <c r="I12">
-        <v>1.697314403553763E-09</v>
+        <v>1.69731440355374E-09</v>
       </c>
       <c r="J12">
-        <v>7.945884699340937E-10</v>
+        <v>7.945884699340767E-10</v>
       </c>
       <c r="K12">
-        <v>0.0007179210750228011</v>
+        <v>0.0007179210750228131</v>
       </c>
       <c r="L12">
-        <v>0.1458506933888321</v>
+        <v>0.1458506933888325</v>
       </c>
       <c r="M12">
-        <v>1308.528390903894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.1458505043170766</v>
+      </c>
+      <c r="N12">
+        <v>1308.528390903906</v>
+      </c>
+      <c r="O12">
+        <v>1.890717558925483E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>60.07993471154243</v>
+        <v>60.07993471154182</v>
       </c>
       <c r="B13">
-        <v>2829.387519764865</v>
+        <v>2829.387519764477</v>
       </c>
       <c r="C13">
-        <v>5.678166323095196</v>
+        <v>5.678166323094472</v>
       </c>
       <c r="D13">
-        <v>32013.79980959559</v>
+        <v>32013.79980959574</v>
       </c>
       <c r="E13">
-        <v>7257.768434399861</v>
+        <v>7257.76843439992</v>
       </c>
       <c r="F13">
-        <v>6759.56434507537</v>
+        <v>6759.564345075431</v>
       </c>
       <c r="G13">
-        <v>22.69424862233774</v>
+        <v>22.69424862233829</v>
       </c>
       <c r="H13">
-        <v>83.01712886249919</v>
+        <v>83.01712886250208</v>
       </c>
       <c r="I13">
-        <v>1.730169404341637E-09</v>
+        <v>1.730169404341617E-09</v>
       </c>
       <c r="J13">
-        <v>8.205495833802626E-10</v>
+        <v>8.205495833802451E-10</v>
       </c>
       <c r="K13">
-        <v>0.0006988759343799119</v>
+        <v>0.0006988759343799259</v>
       </c>
       <c r="L13">
-        <v>0.1454543230905704</v>
+        <v>0.1454543230905706</v>
       </c>
       <c r="M13">
-        <v>1289.13484618705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.1454541292040411</v>
+      </c>
+      <c r="N13">
+        <v>1289.134846187063</v>
+      </c>
+      <c r="O13">
+        <v>1.93886529498542E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>60.94936734664238</v>
+        <v>60.94936734664172</v>
       </c>
       <c r="B14">
-        <v>3479.530678051938</v>
+        <v>3479.530678051468</v>
       </c>
       <c r="C14">
-        <v>6.886444379319053</v>
+        <v>6.886444379318196</v>
       </c>
       <c r="D14">
-        <v>31795.8723281547</v>
+        <v>31795.87232815486</v>
       </c>
       <c r="E14">
-        <v>7186.693246442748</v>
+        <v>7186.693246442799</v>
       </c>
       <c r="F14">
-        <v>6681.530221903564</v>
+        <v>6681.530221903618</v>
       </c>
       <c r="G14">
-        <v>21.77338215637898</v>
+        <v>21.77338215637973</v>
       </c>
       <c r="H14">
-        <v>78.94998669214799</v>
+        <v>78.94998669215099</v>
       </c>
       <c r="I14">
-        <v>1.763775768708652E-09</v>
+        <v>1.763775768708626E-09</v>
       </c>
       <c r="J14">
-        <v>8.47843846013585E-10</v>
+        <v>8.478438460135627E-10</v>
       </c>
       <c r="K14">
-        <v>0.0006780118411332035</v>
+        <v>0.00067801184113322</v>
       </c>
       <c r="L14">
-        <v>0.1450910707395955</v>
+        <v>0.1450910707395957</v>
       </c>
       <c r="M14">
-        <v>1271.243402375402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.1450908717674884</v>
+      </c>
+      <c r="N14">
+        <v>1271.243402375414</v>
+      </c>
+      <c r="O14">
+        <v>1.989721072863397E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>61.81879998174233</v>
+        <v>61.81879998174161</v>
       </c>
       <c r="B15">
-        <v>4246.479085236258</v>
+        <v>4246.47908523563</v>
       </c>
       <c r="C15">
-        <v>8.29041741619716</v>
+        <v>8.290417416196027</v>
       </c>
       <c r="D15">
-        <v>31584.53396848472</v>
+        <v>31584.5339684849</v>
       </c>
       <c r="E15">
-        <v>7118.952983074193</v>
+        <v>7118.952983074247</v>
       </c>
       <c r="F15">
-        <v>6606.872077899287</v>
+        <v>6606.872077899347</v>
       </c>
       <c r="G15">
-        <v>20.82926613631436</v>
+        <v>20.8292661363151</v>
       </c>
       <c r="H15">
-        <v>75.10799733337039</v>
+        <v>75.1079973333734</v>
       </c>
       <c r="I15">
-        <v>1.798201484300398E-09</v>
+        <v>1.798201484300369E-09</v>
       </c>
       <c r="J15">
-        <v>8.765544762588176E-10</v>
+        <v>8.765544762587945E-10</v>
       </c>
       <c r="K15">
-        <v>0.000655529104816401</v>
+        <v>0.0006555291048164199</v>
       </c>
       <c r="L15">
-        <v>0.1447524871061576</v>
+        <v>0.1447524871061578</v>
       </c>
       <c r="M15">
-        <v>1254.551699564259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.1447522827635329</v>
+      </c>
+      <c r="N15">
+        <v>1254.551699564273</v>
+      </c>
+      <c r="O15">
+        <v>2.043426249427554E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>62.68823261684227</v>
+        <v>62.68823261684151</v>
       </c>
       <c r="B16">
-        <v>5145.285429184871</v>
+        <v>5145.285429184044</v>
       </c>
       <c r="C16">
-        <v>9.911597942135886</v>
+        <v>9.911597942134406</v>
       </c>
       <c r="D16">
-        <v>31379.33654155315</v>
+        <v>31379.33654155333</v>
       </c>
       <c r="E16">
-        <v>7054.341058123934</v>
+        <v>7054.34105812398</v>
       </c>
       <c r="F16">
-        <v>6535.387378851325</v>
+        <v>6535.387378851379</v>
       </c>
       <c r="G16">
-        <v>19.88235989669503</v>
+        <v>19.8823598966959</v>
       </c>
       <c r="H16">
-        <v>71.49128659305485</v>
+        <v>71.49128659305801</v>
       </c>
       <c r="I16">
-        <v>1.833516165353917E-09</v>
+        <v>1.833516165353885E-09</v>
       </c>
       <c r="J16">
-        <v>9.06767944497132E-10</v>
+        <v>9.067679444971053E-10</v>
       </c>
       <c r="K16">
-        <v>0.0006316703468964294</v>
+        <v>0.000631670346896451</v>
       </c>
       <c r="L16">
-        <v>0.1444313475846564</v>
+        <v>0.1444313475846566</v>
       </c>
       <c r="M16">
-        <v>1238.8196199658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.1444311375719856</v>
+      </c>
+      <c r="N16">
+        <v>1238.819619965813</v>
+      </c>
+      <c r="O16">
+        <v>2.10012671086612E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>63.55766525194223</v>
+        <v>63.55766525194139</v>
       </c>
       <c r="B17">
-        <v>6192.131660940708</v>
+        <v>6192.131660939581</v>
       </c>
       <c r="C17">
-        <v>11.7726564644846</v>
+        <v>11.77265646448261</v>
       </c>
       <c r="D17">
-        <v>31179.86085875267</v>
+        <v>31179.86085875286</v>
       </c>
       <c r="E17">
-        <v>6992.651613445121</v>
+        <v>6992.651613445184</v>
       </c>
       <c r="F17">
-        <v>6466.874470342847</v>
+        <v>6466.874470342915</v>
       </c>
       <c r="G17">
-        <v>18.94832452367641</v>
+        <v>18.94832452367728</v>
       </c>
       <c r="H17">
-        <v>68.09707450009381</v>
+        <v>68.09707450009687</v>
       </c>
       <c r="I17">
-        <v>1.869791245338164E-09</v>
+        <v>1.86979124533813E-09</v>
       </c>
       <c r="J17">
-        <v>9.385738877315481E-10</v>
+        <v>9.385738877315175E-10</v>
       </c>
       <c r="K17">
-        <v>0.0006067156974227635</v>
+        <v>0.0006067156974227876</v>
       </c>
       <c r="L17">
-        <v>0.1441216062842398</v>
+        <v>0.1441216062842401</v>
       </c>
       <c r="M17">
-        <v>1223.855550814986</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.1441213902869895</v>
+      </c>
+      <c r="N17">
+        <v>1223.855550814999</v>
+      </c>
+      <c r="O17">
+        <v>2.159972505785994E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>64.42709788704217</v>
+        <v>64.42709788704128</v>
       </c>
       <c r="B18">
-        <v>7404.338721712315</v>
+        <v>7404.338721711002</v>
       </c>
       <c r="C18">
-        <v>13.89739960035728</v>
+        <v>13.897399600355</v>
       </c>
       <c r="D18">
-        <v>30985.7144271976</v>
+        <v>30985.7144271978</v>
       </c>
       <c r="E18">
-        <v>6933.681776899178</v>
+        <v>6933.681776899233</v>
       </c>
       <c r="F18">
-        <v>6401.134824566793</v>
+        <v>6401.134824566858</v>
       </c>
       <c r="G18">
-        <v>18.03887833672673</v>
+        <v>18.03887833672774</v>
       </c>
       <c r="H18">
-        <v>64.92034466169687</v>
+        <v>64.92034466170017</v>
       </c>
       <c r="I18">
-        <v>1.907100199327567E-09</v>
+        <v>1.907100199327527E-09</v>
       </c>
       <c r="J18">
-        <v>9.720649873196936E-10</v>
+        <v>9.720649873196575E-10</v>
       </c>
       <c r="K18">
-        <v>0.0005809744701944709</v>
+        <v>0.0005809744701944971</v>
       </c>
       <c r="L18">
-        <v>0.1438183092831817</v>
+        <v>0.143818309283182</v>
       </c>
       <c r="M18">
-        <v>1209.506269677384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.1438180869714422</v>
+      </c>
+      <c r="N18">
+        <v>1209.506269677398</v>
+      </c>
+      <c r="O18">
+        <v>2.223117397836519E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>65.29653052214212</v>
+        <v>65.29653052214118</v>
       </c>
       <c r="B19">
-        <v>8800.372208502007</v>
+        <v>8800.372208500377</v>
       </c>
       <c r="C19">
-        <v>16.31074725964129</v>
+        <v>16.31074725963848</v>
       </c>
       <c r="D19">
-        <v>30796.5293417641</v>
+        <v>30796.52934176431</v>
       </c>
       <c r="E19">
-        <v>6877.233389128418</v>
+        <v>6877.233389128483</v>
       </c>
       <c r="F19">
-        <v>6337.974755991176</v>
+        <v>6337.974755991249</v>
       </c>
       <c r="G19">
-        <v>17.16252643298765</v>
+        <v>17.16252643298862</v>
       </c>
       <c r="H19">
-        <v>61.95440699952248</v>
+        <v>61.95440699952569</v>
       </c>
       <c r="I19">
-        <v>1.945518795570034E-09</v>
+        <v>1.945518795569992E-09</v>
       </c>
       <c r="J19">
-        <v>1.007336806880063E-09</v>
+        <v>1.007336806880024E-09</v>
       </c>
       <c r="K19">
-        <v>0.000554773681891472</v>
+        <v>0.0005547736818915009</v>
       </c>
       <c r="L19">
-        <v>0.1435174774157798</v>
+        <v>0.1435174774157801</v>
       </c>
       <c r="M19">
-        <v>1195.649319378282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.1435172484439468</v>
+      </c>
+      <c r="N19">
+        <v>1195.649319378297</v>
+      </c>
+      <c r="O19">
+        <v>2.289718333474204E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>66.16596315724207</v>
+        <v>66.16596315724108</v>
       </c>
       <c r="B20">
-        <v>10399.84414635128</v>
+        <v>10399.84414634927</v>
       </c>
       <c r="C20">
-        <v>19.03870953759801</v>
+        <v>19.03870953759461</v>
       </c>
       <c r="D20">
-        <v>30611.96035495487</v>
+        <v>30611.96035495509</v>
       </c>
       <c r="E20">
-        <v>6823.114285976906</v>
+        <v>6823.114285976953</v>
       </c>
       <c r="F20">
-        <v>6277.206692902623</v>
+        <v>6277.206692902679</v>
       </c>
       <c r="G20">
-        <v>16.32517828054448</v>
+        <v>16.32517828054558</v>
       </c>
       <c r="H20">
-        <v>59.19136580693811</v>
+        <v>59.19136580694142</v>
       </c>
       <c r="I20">
-        <v>1.985125376042801E-09</v>
+        <v>1.985125376042753E-09</v>
       </c>
       <c r="J20">
-        <v>1.044487587897112E-09</v>
+        <v>1.044487587897067E-09</v>
       </c>
       <c r="K20">
-        <v>0.0005284443180595881</v>
+        <v>0.0005284443180596183</v>
       </c>
       <c r="L20">
-        <v>0.1432159686731024</v>
+        <v>0.1432159686731027</v>
       </c>
       <c r="M20">
-        <v>1182.187126368741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.1432157326796206</v>
+      </c>
+      <c r="N20">
+        <v>1182.187126368756</v>
+      </c>
+      <c r="O20">
+        <v>2.359934821561524E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>67.03539579234202</v>
+        <v>67.03539579234096</v>
       </c>
       <c r="B21">
-        <v>12223.51105490155</v>
+        <v>12223.51105489908</v>
       </c>
       <c r="C21">
-        <v>22.10836390763206</v>
+        <v>22.1083639076279</v>
       </c>
       <c r="D21">
-        <v>30431.68310761048</v>
+        <v>30431.68310761069</v>
       </c>
       <c r="E21">
-        <v>6771.139213048113</v>
+        <v>6771.139213048178</v>
       </c>
       <c r="F21">
-        <v>6218.650081462989</v>
+        <v>6218.650081463062</v>
       </c>
       <c r="G21">
-        <v>15.53066689887463</v>
+        <v>15.53066689887551</v>
       </c>
       <c r="H21">
-        <v>56.62250483705441</v>
+        <v>56.62250483705735</v>
       </c>
       <c r="I21">
-        <v>2.026001166154027E-09</v>
+        <v>2.026001166153976E-09</v>
       </c>
       <c r="J21">
-        <v>1.083618001114742E-09</v>
+        <v>1.083618001114692E-09</v>
       </c>
       <c r="K21">
-        <v>0.0005023066863363141</v>
+        <v>0.0005023066863363455</v>
       </c>
       <c r="L21">
-        <v>0.1429113294135543</v>
+        <v>0.1429113294135547</v>
       </c>
       <c r="M21">
-        <v>1169.042364058787</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.1429110860207324</v>
+      </c>
+      <c r="N21">
+        <v>1169.042364058803</v>
+      </c>
+      <c r="O21">
+        <v>2.433928222858752E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>67.90482842744196</v>
+        <v>67.90482842744086</v>
       </c>
       <c r="B22">
-        <v>14293.26851348708</v>
+        <v>14293.26851348423</v>
       </c>
       <c r="C22">
-        <v>25.54783325911506</v>
+        <v>25.54783325911033</v>
       </c>
       <c r="D22">
-        <v>30255.39250520767</v>
+        <v>30255.3925052079</v>
       </c>
       <c r="E22">
-        <v>6721.130438925069</v>
+        <v>6721.130438925125</v>
       </c>
       <c r="F22">
-        <v>6162.131988929012</v>
+        <v>6162.13198892908</v>
       </c>
       <c r="G22">
-        <v>14.78118236037595</v>
+        <v>14.78118236037687</v>
       </c>
       <c r="H22">
-        <v>54.23860052145658</v>
+        <v>54.23860052145949</v>
       </c>
       <c r="I22">
-        <v>2.068230614140687E-09</v>
+        <v>2.06823061414063E-09</v>
       </c>
       <c r="J22">
-        <v>1.124830852524077E-09</v>
+        <v>1.124830852524022E-09</v>
       </c>
       <c r="K22">
-        <v>0.0004766564179549673</v>
+        <v>0.0004766564179549992</v>
       </c>
       <c r="L22">
-        <v>0.142601642257365</v>
+        <v>0.1426016422573655</v>
       </c>
       <c r="M22">
-        <v>1156.154224611999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.1426013910712705</v>
+      </c>
+      <c r="N22">
+        <v>1156.154224612016</v>
+      </c>
+      <c r="O22">
+        <v>2.511860949124346E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>68.77426106254192</v>
+        <v>68.77426106254076</v>
       </c>
       <c r="B23">
-        <v>16632.14244237988</v>
+        <v>16632.14244237651</v>
       </c>
       <c r="C23">
-        <v>29.38626528137892</v>
+        <v>29.38626528137342</v>
       </c>
       <c r="D23">
-        <v>30082.80122600782</v>
+        <v>30082.80122600805</v>
       </c>
       <c r="E23">
-        <v>6672.918124282832</v>
+        <v>6672.918124282893</v>
       </c>
       <c r="F23">
-        <v>6107.487463367491</v>
+        <v>6107.487463367558</v>
       </c>
       <c r="G23">
-        <v>14.07763133355557</v>
+        <v>14.07763133355636</v>
       </c>
       <c r="H23">
-        <v>52.03017358106636</v>
+        <v>52.03017358106909</v>
       </c>
       <c r="I23">
-        <v>2.111901761131057E-09</v>
+        <v>2.111901761130998E-09</v>
       </c>
       <c r="J23">
-        <v>1.168230743622058E-09</v>
+        <v>1.168230743621998E-09</v>
       </c>
       <c r="K23">
-        <v>0.0004517526139082568</v>
+        <v>0.00045175261390829</v>
       </c>
       <c r="L23">
-        <v>0.1422853769692375</v>
+        <v>0.1422853769692379</v>
       </c>
       <c r="M23">
-        <v>1143.475370165281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.1422851175796806</v>
+      </c>
+      <c r="N23">
+        <v>1143.475370165298</v>
+      </c>
+      <c r="O23">
+        <v>2.593895573479766E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>69.64369369764187</v>
+        <v>69.64369369764066</v>
       </c>
       <c r="B24">
-        <v>19264.27732811266</v>
+        <v>19264.27732810883</v>
       </c>
       <c r="C24">
-        <v>33.65381365361402</v>
+        <v>33.65381365360785</v>
       </c>
       <c r="D24">
-        <v>29913.6383486716</v>
+        <v>29913.63834867184</v>
       </c>
       <c r="E24">
-        <v>6626.340495638491</v>
+        <v>6626.340495638556</v>
       </c>
       <c r="F24">
-        <v>6054.559698693095</v>
+        <v>6054.559698693169</v>
       </c>
       <c r="G24">
-        <v>13.41993327352655</v>
+        <v>13.41993327352736</v>
       </c>
       <c r="H24">
-        <v>49.98768833246749</v>
+        <v>49.98768833247018</v>
       </c>
       <c r="I24">
-        <v>2.157106643282239E-09</v>
+        <v>2.157106643282175E-09</v>
       </c>
       <c r="J24">
-        <v>1.213923686637355E-09</v>
+        <v>1.213923686637291E-09</v>
       </c>
       <c r="K24">
-        <v>0.0004278092901794794</v>
+        <v>0.0004278092901795118</v>
       </c>
       <c r="L24">
-        <v>0.1419612490091092</v>
+        <v>0.1419612490091096</v>
       </c>
       <c r="M24">
-        <v>1130.969406367991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.141960980989724</v>
+      </c>
+      <c r="N24">
+        <v>1130.96940636801</v>
+      </c>
+      <c r="O24">
+        <v>2.680193855894212E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>70.51312633274181</v>
+        <v>70.51312633274054</v>
       </c>
       <c r="B25">
-        <v>22214.92162814536</v>
+        <v>22214.92162814077</v>
       </c>
       <c r="C25">
-        <v>38.38162146193874</v>
+        <v>38.38162146193142</v>
       </c>
       <c r="D25">
-        <v>29747.6480881609</v>
+        <v>29747.64808816114</v>
       </c>
       <c r="E25">
-        <v>6581.243864875682</v>
+        <v>6581.243864875749</v>
       </c>
       <c r="F25">
-        <v>6003.200046228665</v>
+        <v>6003.200046228745</v>
       </c>
       <c r="G25">
-        <v>12.80726272484312</v>
+        <v>12.80726272484383</v>
       </c>
       <c r="H25">
-        <v>48.10170799288804</v>
+        <v>48.1017079928906</v>
       </c>
       <c r="I25">
-        <v>2.203941727870268E-09</v>
+        <v>2.203941727870196E-09</v>
       </c>
       <c r="J25">
-        <v>1.262016676577353E-09</v>
+        <v>1.26201667657728E-09</v>
       </c>
       <c r="K25">
-        <v>0.0004049907417955939</v>
+        <v>0.0004049907417956263</v>
       </c>
       <c r="L25">
-        <v>0.1416280889242281</v>
+        <v>0.1416280889242285</v>
       </c>
       <c r="M25">
-        <v>1118.608769385959</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.1416278118326595</v>
+      </c>
+      <c r="N25">
+        <v>1118.608769385979</v>
+      </c>
+      <c r="O25">
+        <v>2.770915690066137E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>71.38255896784176</v>
+        <v>71.38255896784044</v>
       </c>
       <c r="B26">
-        <v>25510.41059461565</v>
+        <v>25510.41059460985</v>
       </c>
       <c r="C26">
-        <v>43.6018072296662</v>
+        <v>43.60180722965699</v>
       </c>
       <c r="D26">
-        <v>29584.58862982349</v>
+        <v>29584.58862982374</v>
       </c>
       <c r="E26">
-        <v>6537.482528954635</v>
+        <v>6537.482528954705</v>
       </c>
       <c r="F26">
-        <v>5953.267907244564</v>
+        <v>5953.267907244644</v>
       </c>
       <c r="G26">
-        <v>12.23824608700521</v>
+        <v>12.23824608700595</v>
       </c>
       <c r="H26">
-        <v>46.36301329805976</v>
+        <v>46.36301329806221</v>
       </c>
       <c r="I26">
-        <v>2.252508385704542E-09</v>
+        <v>2.252508385704466E-09</v>
       </c>
       <c r="J26">
-        <v>1.312617223223518E-09</v>
+        <v>1.312617223223439E-09</v>
       </c>
       <c r="K26">
-        <v>0.0003834108503086755</v>
+        <v>0.0003834108503087075</v>
       </c>
       <c r="L26">
-        <v>0.14128472449493</v>
+        <v>0.1412847244949305</v>
       </c>
       <c r="M26">
-        <v>1106.372949752998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.1412844378731325</v>
+      </c>
+      <c r="N26">
+        <v>1106.372949753018</v>
+      </c>
+      <c r="O26">
+        <v>2.866217980565891E-07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>72.25199160294171</v>
+        <v>72.25199160294034</v>
       </c>
       <c r="B27">
-        <v>29178.14675870484</v>
+        <v>29178.146758699</v>
       </c>
       <c r="C27">
-        <v>49.34745391512145</v>
+        <v>49.34745391511239</v>
       </c>
       <c r="D27">
-        <v>29424.23105251577</v>
+        <v>29424.23105251602</v>
       </c>
       <c r="E27">
-        <v>6494.918578345259</v>
+        <v>6494.918578345334</v>
       </c>
       <c r="F27">
-        <v>5904.630535045203</v>
+        <v>5904.630535045286</v>
       </c>
       <c r="G27">
-        <v>11.71112013757258</v>
+        <v>11.71112013757335</v>
       </c>
       <c r="H27">
-        <v>44.76269080417263</v>
+        <v>44.76269080417502</v>
       </c>
       <c r="I27">
-        <v>2.302913402764104E-09</v>
+        <v>2.302913402764025E-09</v>
       </c>
       <c r="J27">
-        <v>1.365832847563163E-09</v>
+        <v>1.365832847563079E-09</v>
       </c>
       <c r="K27">
-        <v>0.0003631358381647513</v>
+        <v>0.0003631358381647816</v>
       </c>
       <c r="L27">
-        <v>0.1409298766046999</v>
+        <v>0.1409298766047004</v>
       </c>
       <c r="M27">
-        <v>1094.246997784813</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.1409295799793542</v>
+      </c>
+      <c r="N27">
+        <v>1094.246997784832</v>
+      </c>
+      <c r="O27">
+        <v>2.966253461772836E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>73.12142423804166</v>
+        <v>73.12142423804023</v>
       </c>
       <c r="B28">
-        <v>33246.57831652823</v>
+        <v>33246.57831652118</v>
       </c>
       <c r="C28">
-        <v>55.65260120365802</v>
+        <v>55.65260120364716</v>
       </c>
       <c r="D28">
-        <v>29266.35833247806</v>
+        <v>29266.35833247831</v>
       </c>
       <c r="E28">
-        <v>6453.421637645349</v>
+        <v>6453.421637645411</v>
       </c>
       <c r="F28">
-        <v>5857.162770082974</v>
+        <v>5857.162770083041</v>
       </c>
       <c r="G28">
-        <v>11.22385863164999</v>
+        <v>11.22385863165077</v>
       </c>
       <c r="H28">
-        <v>43.29219636937456</v>
+        <v>43.29219636937685</v>
       </c>
       <c r="I28">
-        <v>2.355269534515109E-09</v>
+        <v>2.355269534515027E-09</v>
       </c>
       <c r="J28">
-        <v>1.421770548555204E-09</v>
+        <v>1.421770548555113E-09</v>
       </c>
       <c r="K28">
-        <v>0.0003441896219535848</v>
+        <v>0.0003441896219536143</v>
       </c>
       <c r="L28">
-        <v>0.1405620691998175</v>
+        <v>0.1405620691998181</v>
       </c>
       <c r="M28">
-        <v>1082.220269198003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.1405617620828708</v>
+      </c>
+      <c r="N28">
+        <v>1082.220269198021</v>
+      </c>
+      <c r="O28">
+        <v>3.071169472854814E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>73.9908568731416</v>
+        <v>73.99085687314012</v>
       </c>
       <c r="B29">
-        <v>37745.17565453627</v>
+        <v>37745.17565452882</v>
       </c>
       <c r="C29">
-        <v>62.55224139683987</v>
+        <v>62.55224139682857</v>
       </c>
       <c r="D29">
-        <v>29110.7644204465</v>
+        <v>29110.76442044676</v>
       </c>
       <c r="E29">
-        <v>6412.868557499332</v>
+        <v>6412.868557499402</v>
       </c>
       <c r="F29">
-        <v>5810.746727223061</v>
+        <v>5810.746727223141</v>
       </c>
       <c r="G29">
-        <v>10.77427240968934</v>
+        <v>10.77427240969013</v>
       </c>
       <c r="H29">
-        <v>41.94339851308598</v>
+        <v>41.94339851308823</v>
       </c>
       <c r="I29">
-        <v>2.409696106974176E-09</v>
+        <v>2.409696106974079E-09</v>
       </c>
       <c r="J29">
-        <v>1.480536247540188E-09</v>
+        <v>1.480536247540084E-09</v>
       </c>
       <c r="K29">
-        <v>0.0003265607706428778</v>
+        <v>0.0003265607706429067</v>
       </c>
       <c r="L29">
-        <v>0.140179553405706</v>
+        <v>0.1401795534057067</v>
       </c>
       <c r="M29">
-        <v>1070.28537854452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.1401792352950362</v>
+      </c>
+      <c r="N29">
+        <v>1070.28537854454</v>
+      </c>
+      <c r="O29">
+        <v>3.181106705566365E-07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>74.86028950824156</v>
+        <v>74.86028950824002</v>
       </c>
       <c r="B30">
-        <v>42704.40624768317</v>
+        <v>42704.40624767472</v>
       </c>
       <c r="C30">
-        <v>70.08231918276586</v>
+        <v>70.08231918275321</v>
       </c>
       <c r="D30">
-        <v>28957.25338517598</v>
+        <v>28957.25338517625</v>
       </c>
       <c r="E30">
-        <v>6373.14307324355</v>
+        <v>6373.143073243604</v>
       </c>
       <c r="F30">
-        <v>5765.271450586014</v>
+        <v>5765.271450586077</v>
       </c>
       <c r="G30">
-        <v>10.36008765142795</v>
+        <v>10.36008765142864</v>
       </c>
       <c r="H30">
-        <v>40.70860563725521</v>
+        <v>40.70860563725729</v>
       </c>
       <c r="I30">
-        <v>2.466319669238941E-09</v>
+        <v>2.466319669238841E-09</v>
       </c>
       <c r="J30">
-        <v>1.542234218968855E-09</v>
+        <v>1.542234218968745E-09</v>
       </c>
       <c r="K30">
-        <v>0.0003102101140550663</v>
+        <v>0.0003102101140550939</v>
       </c>
       <c r="L30">
-        <v>0.1397802458135022</v>
+        <v>0.1397802458135029</v>
       </c>
       <c r="M30">
-        <v>1058.437333800427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.1397799161937085</v>
+      </c>
+      <c r="N30">
+        <v>1058.437333800448</v>
+      </c>
+      <c r="O30">
+        <v>3.296197944082352E-07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>75.72972214334149</v>
+        <v>75.72972214333991</v>
       </c>
       <c r="B31">
-        <v>48155.70815708947</v>
+        <v>48155.70815707938</v>
       </c>
       <c r="C31">
-        <v>78.27973555703885</v>
+        <v>78.2797355570238</v>
       </c>
       <c r="D31">
-        <v>28805.63861716803</v>
+        <v>28805.63861716829</v>
       </c>
       <c r="E31">
-        <v>6334.135442593408</v>
+        <v>6334.135442593485</v>
       </c>
       <c r="F31">
-        <v>5720.632548279292</v>
+        <v>5720.63254827938</v>
       </c>
       <c r="G31">
-        <v>9.979006211029382</v>
+        <v>9.979006211030139</v>
       </c>
       <c r="H31">
-        <v>39.58058046226292</v>
+        <v>39.58058046226495</v>
       </c>
       <c r="I31">
-        <v>2.525274702925259E-09</v>
+        <v>2.525274702925153E-09</v>
       </c>
       <c r="J31">
-        <v>1.606966517382094E-09</v>
+        <v>1.606966517381974E-09</v>
       </c>
       <c r="K31">
-        <v>0.0002950782145694586</v>
+        <v>0.0002950782145694842</v>
       </c>
       <c r="L31">
-        <v>0.1393616810609146</v>
+        <v>0.1393616810609153</v>
       </c>
       <c r="M31">
-        <v>1046.672829142792</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.1393613394042335</v>
+      </c>
+      <c r="N31">
+        <v>1046.672829142812</v>
+      </c>
+      <c r="O31">
+        <v>3.41656681810385E-07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>76.59915477844145</v>
+        <v>76.59915477843981</v>
       </c>
       <c r="B32">
-        <v>54131.46234619244</v>
+        <v>54131.46234618063</v>
       </c>
       <c r="C32">
-        <v>87.18235615476748</v>
+        <v>87.18235615474995</v>
       </c>
       <c r="D32">
-        <v>28655.74208695415</v>
+        <v>28655.74208695444</v>
       </c>
       <c r="E32">
-        <v>6295.742072086429</v>
+        <v>6295.742072086502</v>
       </c>
       <c r="F32">
-        <v>5676.731816725579</v>
+        <v>5676.731816725664</v>
       </c>
       <c r="G32">
-        <v>9.628751352749639</v>
+        <v>9.62875135275015</v>
       </c>
       <c r="H32">
-        <v>38.55254447805861</v>
+        <v>38.55254447806029</v>
       </c>
       <c r="I32">
-        <v>2.586704394741224E-09</v>
+        <v>2.5867043947411E-09</v>
       </c>
       <c r="J32">
-        <v>1.67483241167124E-09</v>
+        <v>1.674832411671107E-09</v>
       </c>
       <c r="K32">
-        <v>0.0002810921442514526</v>
+        <v>0.0002810921442514784</v>
       </c>
       <c r="L32">
-        <v>0.1389209790218449</v>
+        <v>0.1389209790218458</v>
       </c>
       <c r="M32">
-        <v>1034.989675439515</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.1389206247891866</v>
+      </c>
+      <c r="N32">
+        <v>1034.989675439539</v>
+      </c>
+      <c r="O32">
+        <v>3.542326592086698E-07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>77.4685874135414</v>
+        <v>77.46858741353969</v>
       </c>
       <c r="B33">
-        <v>60664.96402549041</v>
+        <v>60664.96402547721</v>
       </c>
       <c r="C33">
-        <v>96.82902425019358</v>
+        <v>96.8290242501742</v>
       </c>
       <c r="D33">
-        <v>28507.39365278571</v>
+        <v>28507.393652786</v>
       </c>
       <c r="E33">
-        <v>6257.865139831409</v>
+        <v>6257.865139831485</v>
       </c>
       <c r="F33">
-        <v>5633.476862131865</v>
+        <v>5633.476862131954</v>
       </c>
       <c r="G33">
-        <v>9.307101671562263</v>
+        <v>9.307101671562929</v>
       </c>
       <c r="H33">
-        <v>37.61817473294251</v>
+        <v>37.6181747329443</v>
       </c>
       <c r="I33">
-        <v>2.650761479305105E-09</v>
+        <v>2.650761479304973E-09</v>
       </c>
       <c r="J33">
-        <v>1.745927838525237E-09</v>
+        <v>1.745927838525091E-09</v>
       </c>
       <c r="K33">
-        <v>0.0002681712426403536</v>
+        <v>0.0002681712426403781</v>
       </c>
       <c r="L33">
-        <v>0.1384548271131558</v>
+        <v>0.1384548271131568</v>
       </c>
       <c r="M33">
-        <v>1023.386349814313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.1384544597552554</v>
+      </c>
+      <c r="N33">
+        <v>1023.386349814336</v>
+      </c>
+      <c r="O33">
+        <v>3.673579014539605E-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>78.33802004864134</v>
+        <v>78.33802004863959</v>
       </c>
       <c r="B34">
-        <v>67790.39322640227</v>
+        <v>67790.39322638868</v>
       </c>
       <c r="C34">
-        <v>107.2595786827808</v>
+        <v>107.2595786827612</v>
       </c>
       <c r="D34">
-        <v>28360.43041303019</v>
+        <v>28360.43041303048</v>
       </c>
       <c r="E34">
-        <v>6220.412220327954</v>
+        <v>6220.412220328032</v>
       </c>
       <c r="F34">
-        <v>5590.780724859759</v>
+        <v>5590.780724859841</v>
       </c>
       <c r="G34">
-        <v>9.011915522004593</v>
+        <v>9.011915522005253</v>
       </c>
       <c r="H34">
-        <v>36.77159487181702</v>
+        <v>36.77159487181876</v>
       </c>
       <c r="I34">
-        <v>2.717609160293192E-09</v>
+        <v>2.717609160293064E-09</v>
       </c>
       <c r="J34">
-        <v>1.82034488758006E-09</v>
+        <v>1.820344887579912E-09</v>
       </c>
       <c r="K34">
-        <v>0.0002562317290901961</v>
+        <v>0.0002562317290902187</v>
       </c>
       <c r="L34">
-        <v>0.1379594783652048</v>
+        <v>0.1379594783652058</v>
       </c>
       <c r="M34">
-        <v>1011.861647178838</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.1379590973238806</v>
+      </c>
+      <c r="N34">
+        <v>1011.861647178859</v>
+      </c>
+      <c r="O34">
+        <v>3.810413251801117E-07</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>79.20745268374129</v>
+        <v>79.20745268373949</v>
       </c>
       <c r="B35">
-        <v>75542.78479470321</v>
+        <v>75542.78479468587</v>
       </c>
       <c r="C35">
-        <v>118.5148769773104</v>
+        <v>118.5148769772852</v>
       </c>
       <c r="D35">
-        <v>28214.69609897851</v>
+        <v>28214.69609897881</v>
       </c>
       <c r="E35">
-        <v>6183.295915653549</v>
+        <v>6183.295915653624</v>
       </c>
       <c r="F35">
-        <v>5548.561510994756</v>
+        <v>5548.561510994841</v>
       </c>
       <c r="G35">
-        <v>8.74114788353268</v>
+        <v>8.741147883533138</v>
       </c>
       <c r="H35">
-        <v>36.00736198587762</v>
+        <v>36.00736198587902</v>
       </c>
       <c r="I35">
-        <v>2.787422119101728E-09</v>
+        <v>2.787422119101579E-09</v>
       </c>
       <c r="J35">
-        <v>1.898171331084396E-09</v>
+        <v>1.898171331084228E-09</v>
       </c>
       <c r="K35">
-        <v>0.0002451901902007393</v>
+        <v>0.0002451901902007616</v>
       </c>
       <c r="L35">
-        <v>0.1374307659504402</v>
+        <v>0.1374307659504413</v>
       </c>
       <c r="M35">
-        <v>1000.41441804568</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.1374303706599483</v>
+      </c>
+      <c r="N35">
+        <v>1000.414418045704</v>
+      </c>
+      <c r="O35">
+        <v>3.952904930383462E-07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>80.07688531884125</v>
+        <v>80.07688531883939</v>
       </c>
       <c r="B36">
-        <v>83957.99798382183</v>
+        <v>83957.99798380303</v>
       </c>
       <c r="C36">
-        <v>130.6368239414829</v>
+        <v>130.6368239414559</v>
       </c>
       <c r="D36">
-        <v>28070.04050413064</v>
+        <v>28070.04050413095</v>
       </c>
       <c r="E36">
-        <v>6146.43349611758</v>
+        <v>6146.433496117662</v>
       </c>
       <c r="F36">
-        <v>5506.742034221253</v>
+        <v>5506.742034221345</v>
       </c>
       <c r="G36">
-        <v>8.49286125449793</v>
+        <v>8.492861254498388</v>
       </c>
       <c r="H36">
-        <v>35.32045053980652</v>
+        <v>35.32045053980784</v>
       </c>
       <c r="I36">
-        <v>2.860387621445948E-09</v>
+        <v>2.860387621445785E-09</v>
       </c>
       <c r="J36">
-        <v>1.979490210854463E-09</v>
+        <v>1.979490210854285E-09</v>
       </c>
       <c r="K36">
-        <v>0.0002349660558240123</v>
+        <v>0.0002349660558240335</v>
       </c>
       <c r="L36">
-        <v>0.136864134815629</v>
+        <v>0.1368641348156303</v>
       </c>
       <c r="M36">
-        <v>989.0433783470019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.1368637247040992</v>
+      </c>
+      <c r="N36">
+        <v>989.0433783470272</v>
+      </c>
+      <c r="O36">
+        <v>4.101115311152972E-07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>80.94631795394119</v>
+        <v>80.94631795393927</v>
       </c>
       <c r="B37">
-        <v>93072.68581815624</v>
+        <v>93072.68581813472</v>
       </c>
       <c r="C37">
-        <v>143.6684060483358</v>
+        <v>143.668406048305</v>
       </c>
       <c r="D37">
-        <v>27926.31894635283</v>
+        <v>27926.31894635315</v>
       </c>
       <c r="E37">
-        <v>6109.746552510124</v>
+        <v>6109.746552510206</v>
       </c>
       <c r="F37">
-        <v>5465.249470146478</v>
+        <v>5465.249470146565</v>
       </c>
       <c r="G37">
-        <v>8.265231882258218</v>
+        <v>8.265231882258769</v>
       </c>
       <c r="H37">
-        <v>34.7062343939026</v>
+        <v>34.70623439390394</v>
       </c>
       <c r="I37">
-        <v>2.936706733723247E-09</v>
+        <v>2.936706733723079E-09</v>
       </c>
       <c r="J37">
-        <v>2.064379494895988E-09</v>
+        <v>2.064379494895799E-09</v>
       </c>
       <c r="K37">
-        <v>0.0002254832243159513</v>
+        <v>0.0002254832243159715</v>
       </c>
       <c r="L37">
-        <v>0.136254690943519</v>
+        <v>0.1362546909435204</v>
       </c>
       <c r="M37">
-        <v>977.7469784167579</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.1362542654344587</v>
+      </c>
+      <c r="N37">
+        <v>977.7469784167814</v>
+      </c>
+      <c r="O37">
+        <v>4.255090616688192E-07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>81.81575058904113</v>
+        <v>81.81575058903917</v>
       </c>
       <c r="B38">
-        <v>102924.2643869226</v>
+        <v>102924.2643869019</v>
       </c>
       <c r="C38">
-        <v>157.6537319436888</v>
+        <v>157.65373194366</v>
       </c>
       <c r="D38">
-        <v>27783.39175959266</v>
+        <v>27783.391759593</v>
       </c>
       <c r="E38">
-        <v>6073.160661287563</v>
+        <v>6073.160661287643</v>
       </c>
       <c r="F38">
-        <v>5424.015024441119</v>
+        <v>5424.015024441216</v>
       </c>
       <c r="G38">
-        <v>8.05655239734331</v>
+        <v>8.056552397343701</v>
       </c>
       <c r="H38">
-        <v>34.1604677311505</v>
+        <v>34.16046773115158</v>
       </c>
       <c r="I38">
-        <v>3.016595662563947E-09</v>
+        <v>3.016595662563742E-09</v>
       </c>
       <c r="J38">
-        <v>2.152911815323714E-09</v>
+        <v>2.152911815323511E-09</v>
       </c>
       <c r="K38">
-        <v>0.0002166710109849108</v>
+        <v>0.0002166710109849306</v>
       </c>
       <c r="L38">
-        <v>0.1355972686333654</v>
+        <v>0.1355972686333671</v>
       </c>
       <c r="M38">
-        <v>966.5233197423265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.135596827147214</v>
+      </c>
+      <c r="N38">
+        <v>966.5233197423551</v>
+      </c>
+      <c r="O38">
+        <v>4.414861530991385E-07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>82.6851832241411</v>
+        <v>82.68518322413905</v>
       </c>
       <c r="B39">
-        <v>113550.8822201062</v>
+        <v>113550.8822200819</v>
       </c>
       <c r="C39">
-        <v>172.638079461914</v>
+        <v>172.6380794618803</v>
       </c>
       <c r="D39">
-        <v>27641.12381210043</v>
+        <v>27641.12381210076</v>
       </c>
       <c r="E39">
-        <v>6036.605063405926</v>
+        <v>6036.605063406013</v>
       </c>
       <c r="F39">
-        <v>5382.973615545077</v>
+        <v>5382.973615545172</v>
       </c>
       <c r="G39">
-        <v>7.865231718838144</v>
+        <v>7.865231718838704</v>
       </c>
       <c r="H39">
-        <v>33.6792655272807</v>
+        <v>33.67926552728192</v>
       </c>
       <c r="I39">
-        <v>3.100287232815802E-09</v>
+        <v>3.100287232815609E-09</v>
       </c>
       <c r="J39">
-        <v>2.245154298129139E-09</v>
+        <v>2.245154298128917E-09</v>
       </c>
       <c r="K39">
-        <v>0.0002084645849776553</v>
+        <v>0.0002084645849776735</v>
       </c>
       <c r="L39">
-        <v>0.1348865161116487</v>
+        <v>0.1348865161116503</v>
       </c>
       <c r="M39">
-        <v>955.3701095281679</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.1348860580673616</v>
+      </c>
+      <c r="N39">
+        <v>955.370109528192</v>
+      </c>
+      <c r="O39">
+        <v>4.580442887411501E-07</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>83.55461585924103</v>
+        <v>83.55461585923895</v>
       </c>
       <c r="B40">
-        <v>124991.3898900035</v>
+        <v>124991.3898899754</v>
       </c>
       <c r="C40">
-        <v>188.6679495878339</v>
+        <v>188.6679495877946</v>
       </c>
       <c r="D40">
-        <v>27499.38404834058</v>
+        <v>27499.38404834091</v>
       </c>
       <c r="E40">
-        <v>6000.012357006419</v>
+        <v>6000.012357006512</v>
       </c>
       <c r="F40">
-        <v>5342.0635721932</v>
+        <v>5342.063572193304</v>
       </c>
       <c r="G40">
-        <v>7.689792930781657</v>
+        <v>7.689792930782004</v>
       </c>
       <c r="H40">
-        <v>33.25908406035712</v>
+        <v>33.25908406035794</v>
       </c>
       <c r="I40">
-        <v>3.18803252129659E-09</v>
+        <v>3.188032521296372E-09</v>
       </c>
       <c r="J40">
-        <v>2.341168493970656E-09</v>
+        <v>2.34116849397042E-09</v>
       </c>
       <c r="K40">
-        <v>0.0002008050390411384</v>
+        <v>0.0002008050390411562</v>
       </c>
       <c r="L40">
-        <v>0.1341169998417977</v>
+        <v>0.1341169998417996</v>
       </c>
       <c r="M40">
-        <v>944.28464450636</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.1341165246584439</v>
+      </c>
+      <c r="N40">
+        <v>944.2846445063869</v>
+      </c>
+      <c r="O40">
+        <v>4.751833557318073E-07</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>84.42404849434098</v>
+        <v>84.42404849433883</v>
       </c>
       <c r="B41">
-        <v>137285.309975218</v>
+        <v>137285.3099751868</v>
       </c>
       <c r="C41">
-        <v>205.7911278706883</v>
+        <v>205.791127870645</v>
       </c>
       <c r="D41">
-        <v>27358.04505198748</v>
+        <v>27358.04505198782</v>
       </c>
       <c r="E41">
-        <v>5963.318203753455</v>
+        <v>5963.318203753543</v>
       </c>
       <c r="F41">
-        <v>5301.226345627082</v>
+        <v>5301.226345627178</v>
       </c>
       <c r="G41">
-        <v>7.528869690497157</v>
+        <v>7.528869690497577</v>
       </c>
       <c r="H41">
-        <v>32.89670184079813</v>
+        <v>32.89670184079902</v>
       </c>
       <c r="I41">
-        <v>3.280102666046089E-09</v>
+        <v>3.280102666045865E-09</v>
       </c>
       <c r="J41">
-        <v>2.441010417539621E-09</v>
+        <v>2.441010417539373E-09</v>
       </c>
       <c r="K41">
-        <v>0.0001936392109235522</v>
+        <v>0.0001936392109235691</v>
       </c>
       <c r="L41">
-        <v>0.1332833281444666</v>
+        <v>0.1332833281444687</v>
       </c>
       <c r="M41">
-        <v>933.2638167459598</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.133282835242814</v>
+      </c>
+      <c r="N41">
+        <v>933.2638167459857</v>
+      </c>
+      <c r="O41">
+        <v>4.929016547785976E-07</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>85.29348112944093</v>
+        <v>85.29348112943875</v>
       </c>
       <c r="B42">
-        <v>150472.8075187785</v>
+        <v>150472.8075187434</v>
       </c>
       <c r="C42">
-        <v>224.0567538794194</v>
+        <v>224.0567538793707</v>
       </c>
       <c r="D42">
-        <v>27216.98262758798</v>
+        <v>27216.98262758833</v>
       </c>
       <c r="E42">
-        <v>5926.461048301193</v>
+        <v>5926.461048301288</v>
       </c>
       <c r="F42">
-        <v>5260.406236050118</v>
+        <v>5260.406236050221</v>
       </c>
       <c r="G42">
-        <v>7.381201615072299</v>
+        <v>7.381201615072628</v>
       </c>
       <c r="H42">
-        <v>32.58920124903376</v>
+        <v>32.58920124903447</v>
       </c>
       <c r="I42">
-        <v>3.376790873572193E-09</v>
+        <v>3.376790873571946E-09</v>
       </c>
       <c r="J42">
-        <v>2.544730701254816E-09</v>
+        <v>2.544730701254551E-09</v>
       </c>
       <c r="K42">
-        <v>0.0001869193493074139</v>
+        <v>0.0001869193493074303</v>
       </c>
       <c r="L42">
-        <v>0.1323802951468155</v>
+        <v>0.132380295146818</v>
       </c>
       <c r="M42">
-        <v>922.3041354294544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.1323797839508867</v>
+      </c>
+      <c r="N42">
+        <v>922.3041354294819</v>
+      </c>
+      <c r="O42">
+        <v>5.111959312524143E-07</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>86.16291376454089</v>
+        <v>86.16291376453863</v>
       </c>
       <c r="B43">
-        <v>164594.6611087152</v>
+        <v>164594.6611086776</v>
       </c>
       <c r="C43">
-        <v>243.5153993895979</v>
+        <v>243.5153993895462</v>
       </c>
       <c r="D43">
-        <v>27076.07539864093</v>
+        <v>27076.07539864129</v>
       </c>
       <c r="E43">
-        <v>5889.381850105163</v>
+        <v>5889.381850105261</v>
       </c>
       <c r="F43">
-        <v>5219.550132641541</v>
+        <v>5219.550132641644</v>
       </c>
       <c r="G43">
-        <v>7.245628997946441</v>
+        <v>7.245628997946857</v>
       </c>
       <c r="H43">
-        <v>32.33395109276163</v>
+        <v>32.33395109276231</v>
       </c>
       <c r="I43">
-        <v>3.478414649775267E-09</v>
+        <v>3.478414649775009E-09</v>
       </c>
       <c r="J43">
-        <v>2.652374867130762E-09</v>
+        <v>2.65237486713048E-09</v>
       </c>
       <c r="K43">
-        <v>0.0001806026937453331</v>
+        <v>0.0001806026937453487</v>
       </c>
       <c r="L43">
-        <v>0.1314030465062445</v>
+        <v>0.1314030465062471</v>
       </c>
       <c r="M43">
-        <v>911.4017596634374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.1314025164448195</v>
+      </c>
+      <c r="N43">
+        <v>911.4017596634635</v>
+      </c>
+      <c r="O43">
+        <v>5.300614275661337E-07</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>87.03234639964083</v>
+        <v>87.03234639963853</v>
       </c>
       <c r="B44">
-        <v>179692.2347084803</v>
+        <v>179692.2347084419</v>
       </c>
       <c r="C44">
-        <v>264.219156114343</v>
+        <v>264.219156114291</v>
       </c>
       <c r="D44">
-        <v>26935.20441999424</v>
+        <v>26935.20441999462</v>
       </c>
       <c r="E44">
-        <v>5852.023826584776</v>
+        <v>5852.023826584872</v>
       </c>
       <c r="F44">
-        <v>5178.607266252624</v>
+        <v>5178.607266252732</v>
       </c>
       <c r="G44">
-        <v>7.121087130472209</v>
+        <v>7.121087130472459</v>
       </c>
       <c r="H44">
-        <v>32.12859023601432</v>
+        <v>32.12859023601468</v>
       </c>
       <c r="I44">
-        <v>3.585318283930058E-09</v>
+        <v>3.585318283929764E-09</v>
       </c>
       <c r="J44">
-        <v>2.763983718729968E-09</v>
+        <v>2.763983718729664E-09</v>
       </c>
       <c r="K44">
-        <v>0.0001746510182966387</v>
+        <v>0.000174651018296654</v>
       </c>
       <c r="L44">
-        <v>0.130347268484014</v>
+        <v>0.130347268484017</v>
       </c>
       <c r="M44">
-        <v>900.5525383626484</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.1303467189920606</v>
+      </c>
+      <c r="N44">
+        <v>900.5525383626776</v>
+      </c>
+      <c r="O44">
+        <v>5.494919563911562E-07</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>87.90177903474077</v>
+        <v>87.90177903473841</v>
       </c>
       <c r="B45">
-        <v>195807.4503659644</v>
+        <v>195807.4503659184</v>
       </c>
       <c r="C45">
-        <v>286.2217339372305</v>
+        <v>286.2217339371675</v>
       </c>
       <c r="D45">
-        <v>26794.2528025926</v>
+        <v>26794.25280259298</v>
       </c>
       <c r="E45">
-        <v>5814.332206469921</v>
+        <v>5814.332206470021</v>
       </c>
       <c r="F45">
-        <v>5137.528973755577</v>
+        <v>5137.528973755682</v>
       </c>
       <c r="G45">
-        <v>7.006600440595957</v>
+        <v>7.006600440596242</v>
       </c>
       <c r="H45">
-        <v>31.97101240542759</v>
+        <v>31.97101240542793</v>
       </c>
       <c r="I45">
-        <v>3.697875619393463E-09</v>
+        <v>3.697875619393156E-09</v>
       </c>
       <c r="J45">
-        <v>2.879593853225548E-09</v>
+        <v>2.879593853225234E-09</v>
       </c>
       <c r="K45">
-        <v>0.0001690301727177454</v>
+        <v>0.00016903017271776</v>
       </c>
       <c r="L45">
-        <v>0.1292094012634291</v>
+        <v>0.1292094012634322</v>
       </c>
       <c r="M45">
-        <v>889.7520540898579</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.1292088317834384</v>
+      </c>
+      <c r="N45">
+        <v>889.7520540898863</v>
+      </c>
+      <c r="O45">
+        <v>5.694799938284073E-07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>88.77121166984074</v>
+        <v>88.77121166983832</v>
       </c>
       <c r="B46">
-        <v>212982.7619342733</v>
+        <v>212982.7619342227</v>
       </c>
       <c r="C46">
-        <v>309.5785707789458</v>
+        <v>309.5785707788768</v>
       </c>
       <c r="D46">
-        <v>26653.1053487284</v>
+        <v>26653.10534872879</v>
       </c>
       <c r="E46">
-        <v>5776.253992019026</v>
+        <v>5776.253992019134</v>
       </c>
       <c r="F46">
-        <v>5096.268472890538</v>
+        <v>5096.268472890652</v>
       </c>
       <c r="G46">
-        <v>6.901276610077304</v>
+        <v>6.901276610077552</v>
       </c>
       <c r="H46">
-        <v>31.85935224308876</v>
+        <v>31.85935224308905</v>
       </c>
       <c r="I46">
-        <v>3.816493149699419E-09</v>
+        <v>3.816493149699085E-09</v>
       </c>
       <c r="J46">
-        <v>2.999238291842742E-09</v>
+        <v>2.999238291842402E-09</v>
       </c>
       <c r="K46">
-        <v>0.0001637096428920443</v>
+        <v>0.0001637096428920587</v>
       </c>
       <c r="L46">
-        <v>0.1279868752456381</v>
+        <v>0.1279868752456416</v>
       </c>
       <c r="M46">
-        <v>878.9956684520464</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.1279862852288503</v>
+      </c>
+      <c r="N46">
+        <v>878.9956684520765</v>
+      </c>
+      <c r="O46">
+        <v>5.900167912918429E-07</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>89.64064430494066</v>
+        <v>89.64064430493821</v>
       </c>
       <c r="B47">
-        <v>231261.1299451739</v>
+        <v>231261.1299451183</v>
       </c>
       <c r="C47">
-        <v>334.346955435686</v>
+        <v>334.3469554356102</v>
       </c>
       <c r="D47">
-        <v>26511.64819605355</v>
+        <v>26511.64819605396</v>
       </c>
       <c r="E47">
-        <v>5737.737728669864</v>
+        <v>5737.737728669977</v>
       </c>
       <c r="F47">
-        <v>5054.780646351927</v>
+        <v>5054.780646352046</v>
       </c>
       <c r="G47">
-        <v>6.804300790853562</v>
+        <v>6.804300790853784</v>
       </c>
       <c r="H47">
-        <v>31.791972648279</v>
+        <v>31.79197264827907</v>
       </c>
       <c r="I47">
-        <v>3.941613484529049E-09</v>
+        <v>3.941613484528685E-09</v>
       </c>
       <c r="J47">
-        <v>3.122947225383609E-09</v>
+        <v>3.122947225383253E-09</v>
       </c>
       <c r="K47">
-        <v>0.0001586621431947882</v>
+        <v>0.0001586621431948022</v>
       </c>
       <c r="L47">
-        <v>0.1266783647375753</v>
+        <v>0.1266783647375791</v>
       </c>
       <c r="M47">
-        <v>868.2785672541394</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.1266777536450746</v>
+      </c>
+      <c r="N47">
+        <v>868.27856725417</v>
+      </c>
+      <c r="O47">
+        <v>6.110925045248389E-07</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>90.51007694004062</v>
+        <v>90.51007694003809</v>
       </c>
       <c r="B48">
-        <v>250685.9977874971</v>
+        <v>250685.997787438</v>
       </c>
       <c r="C48">
-        <v>360.586164971156</v>
+        <v>360.5861649710761</v>
       </c>
       <c r="D48">
-        <v>26369.76846870348</v>
+        <v>26369.76846870389</v>
       </c>
       <c r="E48">
-        <v>5698.733280570556</v>
+        <v>5698.733280570672</v>
       </c>
       <c r="F48">
-        <v>5013.021833763913</v>
+        <v>5013.021833764039</v>
       </c>
       <c r="G48">
-        <v>6.714930008578828</v>
+        <v>6.714930008579085</v>
       </c>
       <c r="H48">
-        <v>31.76745343087606</v>
+        <v>31.76745343087605</v>
       </c>
       <c r="I48">
-        <v>4.073719236864175E-09</v>
+        <v>4.073719236863773E-09</v>
       </c>
       <c r="J48">
-        <v>3.250748870225274E-09</v>
+        <v>3.250748870224894E-09</v>
       </c>
       <c r="K48">
-        <v>0.0001538632470933036</v>
+        <v>0.0001538632470933173</v>
       </c>
       <c r="L48">
-        <v>0.1252840465845481</v>
+        <v>0.1252840465845522</v>
       </c>
       <c r="M48">
-        <v>857.5958041050631</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.1252834138882143</v>
+      </c>
+      <c r="N48">
+        <v>857.5958041050948</v>
+      </c>
+      <c r="O48">
+        <v>6.326963378916153E-07</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>91.37950957514057</v>
+        <v>91.37950957513799</v>
       </c>
       <c r="B49">
-        <v>271301.2693583078</v>
+        <v>271301.2693582503</v>
       </c>
       <c r="C49">
-        <v>388.3576185316932</v>
+        <v>388.357618531617</v>
       </c>
       <c r="D49">
-        <v>26227.35393396781</v>
+        <v>26227.35393396823</v>
       </c>
       <c r="E49">
-        <v>5659.191610330619</v>
+        <v>5659.191610330727</v>
       </c>
       <c r="F49">
-        <v>4970.949630110777</v>
+        <v>4970.949630110895</v>
       </c>
       <c r="G49">
-        <v>6.632487815532319</v>
+        <v>6.63248781553264</v>
       </c>
       <c r="H49">
-        <v>31.78458128587589</v>
+        <v>31.7845812858759</v>
       </c>
       <c r="I49">
-        <v>4.213337390634871E-09</v>
+        <v>4.213337390634442E-09</v>
       </c>
       <c r="J49">
-        <v>3.382670429159741E-09</v>
+        <v>3.382670429159342E-09</v>
       </c>
       <c r="K49">
-        <v>0.0001492910579195181</v>
+        <v>0.0001492910579195315</v>
       </c>
       <c r="L49">
-        <v>0.1238058422221802</v>
+        <v>0.1238058422221847</v>
       </c>
       <c r="M49">
-        <v>846.942341569482</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.1238051874054828</v>
+      </c>
+      <c r="N49">
+        <v>846.9423415695135</v>
+      </c>
+      <c r="O49">
+        <v>6.548167018873822E-07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>92.24894221024051</v>
+        <v>92.24894221023789</v>
       </c>
       <c r="B50">
-        <v>293151.2883750066</v>
+        <v>293151.2883749358</v>
       </c>
       <c r="C50">
-        <v>417.7250497930387</v>
+        <v>417.725049792943</v>
       </c>
       <c r="D50">
-        <v>26084.29266301617</v>
+        <v>26084.29266301662</v>
       </c>
       <c r="E50">
-        <v>5619.064561226772</v>
+        <v>5619.064561226898</v>
       </c>
       <c r="F50">
-        <v>4928.522689106505</v>
+        <v>4928.522689106642</v>
       </c>
       <c r="G50">
-        <v>6.556359234796073</v>
+        <v>6.556359234796252</v>
       </c>
       <c r="H50">
-        <v>31.84234109048201</v>
+        <v>31.8423410904816</v>
       </c>
       <c r="I50">
-        <v>4.36104421759262E-09</v>
+        <v>4.361044217592133E-09</v>
       </c>
       <c r="J50">
-        <v>3.518739150743438E-09</v>
+        <v>3.518739150743014E-09</v>
       </c>
       <c r="K50">
-        <v>0.0001449259189232538</v>
+        <v>0.000144925918923267</v>
       </c>
       <c r="L50">
-        <v>0.1222476118083915</v>
+        <v>0.1222476118083965</v>
       </c>
       <c r="M50">
-        <v>836.3130892741781</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.1222469343670148</v>
+      </c>
+      <c r="N50">
+        <v>836.3130892742121</v>
+      </c>
+      <c r="O50">
+        <v>6.774413816469926E-07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>93.11837484534047</v>
+        <v>93.11837484533778</v>
       </c>
       <c r="B51">
-        <v>316280.8195617551</v>
+        <v>316280.8195616825</v>
       </c>
       <c r="C51">
-        <v>448.754700645158</v>
+        <v>448.754700645061</v>
       </c>
       <c r="D51">
-        <v>25940.47269425284</v>
+        <v>25940.47269425328</v>
       </c>
       <c r="E51">
-        <v>5578.304639990632</v>
+        <v>5578.304639990765</v>
       </c>
       <c r="F51">
-        <v>4885.700529904751</v>
+        <v>4885.700529904887</v>
       </c>
       <c r="G51">
-        <v>6.485986021818415</v>
+        <v>6.485986021818598</v>
       </c>
       <c r="H51">
-        <v>31.93990852173419</v>
+        <v>31.93990852173383</v>
       </c>
       <c r="I51">
-        <v>4.517470823262995E-09</v>
+        <v>4.517470823262511E-09</v>
       </c>
       <c r="J51">
-        <v>3.658983480458883E-09</v>
+        <v>3.658983480458445E-09</v>
       </c>
       <c r="K51">
-        <v>0.0001407501600085217</v>
+        <v>0.000140750160008534</v>
       </c>
       <c r="L51">
-        <v>0.1206152613795976</v>
+        <v>0.1206152613796027</v>
       </c>
       <c r="M51">
-        <v>825.7029386229972</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.1206145608218885</v>
+      </c>
+      <c r="N51">
+        <v>825.7029386230294</v>
+      </c>
+      <c r="O51">
+        <v>7.005577141645021E-07</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>93.98780748044042</v>
+        <v>93.98780748043767</v>
       </c>
       <c r="B52">
-        <v>340735.0319549245</v>
+        <v>340735.0319548461</v>
       </c>
       <c r="C52">
-        <v>481.5155391889822</v>
+        <v>481.5155391888775</v>
       </c>
       <c r="D52">
-        <v>25795.78169793151</v>
+        <v>25795.78169793197</v>
       </c>
       <c r="E52">
-        <v>5536.86479819191</v>
+        <v>5536.86479819204</v>
       </c>
       <c r="F52">
-        <v>4842.443345461261</v>
+        <v>4842.443345461395</v>
       </c>
       <c r="G52">
-        <v>6.420862257370452</v>
+        <v>6.420862257370676</v>
       </c>
       <c r="H52">
-        <v>32.07664399317644</v>
+        <v>32.07664399317597</v>
       </c>
       <c r="I52">
-        <v>4.683309415008515E-09</v>
+        <v>4.683309415007968E-09</v>
       </c>
       <c r="J52">
-        <v>3.803434296960866E-09</v>
+        <v>3.803434296960396E-09</v>
       </c>
       <c r="K52">
-        <v>0.0001367478776431315</v>
+        <v>0.0001367478776431439</v>
       </c>
       <c r="L52">
-        <v>0.118916722181306</v>
+        <v>0.1189167221813114</v>
       </c>
       <c r="M52">
-        <v>815.1067939596253</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.1189159980285395</v>
+      </c>
+      <c r="N52">
+        <v>815.1067939596592</v>
+      </c>
+      <c r="O52">
+        <v>7.241527719078427E-07</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>94.85724011554036</v>
+        <v>94.85724011553756</v>
       </c>
       <c r="B53">
-        <v>366559.4846093361</v>
+        <v>366559.4846092503</v>
       </c>
       <c r="C53">
-        <v>516.0795056659595</v>
+        <v>516.0795056658446</v>
       </c>
       <c r="D53">
-        <v>25650.1066407129</v>
+        <v>25650.10664071337</v>
       </c>
       <c r="E53">
-        <v>5494.69821010947</v>
+        <v>5494.698210109595</v>
       </c>
       <c r="F53">
-        <v>4798.711810764268</v>
+        <v>4798.711810764405</v>
       </c>
       <c r="G53">
-        <v>6.36053027673996</v>
+        <v>6.360530276740176</v>
       </c>
       <c r="H53">
-        <v>32.25208791321104</v>
+        <v>32.25208791321043</v>
       </c>
       <c r="I53">
-        <v>4.859320400893584E-09</v>
+        <v>4.859320400892988E-09</v>
       </c>
       <c r="J53">
-        <v>3.952126226972543E-09</v>
+        <v>3.952126226972054E-09</v>
       </c>
       <c r="K53">
-        <v>0.0001329047440624951</v>
+        <v>0.0001329047440625073</v>
       </c>
       <c r="L53">
-        <v>0.1171617691096903</v>
+        <v>0.1171617691096961</v>
       </c>
       <c r="M53">
-        <v>804.5196001537919</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.1171610208961456</v>
+      </c>
+      <c r="N53">
+        <v>804.5196001538268</v>
+      </c>
+      <c r="O53">
+        <v>7.482135505353679E-07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>95.7266727506403</v>
+        <v>95.72667275063746</v>
       </c>
       <c r="B54">
-        <v>393800.1150317265</v>
+        <v>393800.1150316393</v>
       </c>
       <c r="C54">
-        <v>552.5217905830636</v>
+        <v>552.5217905829478</v>
       </c>
       <c r="D54">
-        <v>25503.33344889105</v>
+        <v>25503.33344889152</v>
       </c>
       <c r="E54">
-        <v>5451.758044848581</v>
+        <v>5451.758044848702</v>
       </c>
       <c r="F54">
-        <v>4754.466889038616</v>
+        <v>4754.466889038743</v>
       </c>
       <c r="G54">
-        <v>6.304576933231258</v>
+        <v>6.304576933231423</v>
       </c>
       <c r="H54">
-        <v>32.4659572754449</v>
+        <v>32.46595727544411</v>
       </c>
       <c r="I54">
-        <v>5.046340446730629E-09</v>
+        <v>5.046340446730002E-09</v>
       </c>
       <c r="J54">
-        <v>4.105099032991856E-09</v>
+        <v>4.105099032991348E-09</v>
       </c>
       <c r="K54">
-        <v>0.0001292078418737838</v>
+        <v>0.0001292078418737956</v>
       </c>
       <c r="L54">
-        <v>0.1153616642544946</v>
+        <v>0.1153616642545005</v>
       </c>
       <c r="M54">
-        <v>793.9363666825432</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.115360891527342</v>
+      </c>
+      <c r="N54">
+        <v>793.9363666825776</v>
+      </c>
+      <c r="O54">
+        <v>7.727271585321859E-07</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>96.59610538574027</v>
+        <v>96.59610538573735</v>
       </c>
       <c r="B55">
-        <v>422503.230719426</v>
+        <v>422503.2307193305</v>
       </c>
       <c r="C55">
-        <v>590.9211500460324</v>
+        <v>590.9211500459054</v>
       </c>
       <c r="D55">
-        <v>25355.34666905172</v>
+        <v>25355.34666905221</v>
       </c>
       <c r="E55">
-        <v>5407.997230314963</v>
+        <v>5407.9972303151</v>
       </c>
       <c r="F55">
-        <v>4709.66963390595</v>
+        <v>4709.66963390609</v>
       </c>
       <c r="G55">
-        <v>6.25263018916015</v>
+        <v>6.252630189160351</v>
       </c>
       <c r="H55">
-        <v>32.71814360249338</v>
+        <v>32.71814360249251</v>
       </c>
       <c r="I55">
-        <v>5.245291641065397E-09</v>
+        <v>5.245291641064711E-09</v>
       </c>
       <c r="J55">
-        <v>4.262399068836627E-09</v>
+        <v>4.262399068836099E-09</v>
       </c>
       <c r="K55">
-        <v>0.0001256455203706022</v>
+        <v>0.0001256455203706138</v>
       </c>
       <c r="L55">
-        <v>0.1135286398449259</v>
+        <v>0.1135286398449321</v>
       </c>
       <c r="M55">
-        <v>783.3521883419717</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.1135278421639255</v>
+      </c>
+      <c r="N55">
+        <v>783.3521883420068</v>
+      </c>
+      <c r="O55">
+        <v>7.976810066620678E-07</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>97.4655380208402</v>
+        <v>97.46553802083724</v>
       </c>
       <c r="B56">
-        <v>452715.504242817</v>
+        <v>452715.5042427152</v>
       </c>
       <c r="C56">
-        <v>631.3602641930399</v>
+        <v>631.3602641929045</v>
       </c>
       <c r="D56">
-        <v>25206.02912495512</v>
+        <v>25206.02912495563</v>
       </c>
       <c r="E56">
-        <v>5363.368206489865</v>
+        <v>5363.368206490016</v>
       </c>
       <c r="F56">
-        <v>4664.280985340971</v>
+        <v>4664.280985341125</v>
       </c>
       <c r="G56">
-        <v>6.204356024164296</v>
+        <v>6.204356024164513</v>
       </c>
       <c r="H56">
-        <v>33.00871227966878</v>
+        <v>33.00871227966778</v>
       </c>
       <c r="I56">
-        <v>5.457191944773917E-09</v>
+        <v>5.457191944773167E-09</v>
       </c>
       <c r="J56">
-        <v>4.424080799165681E-09</v>
+        <v>4.424080799165121E-09</v>
       </c>
       <c r="K56">
-        <v>0.0001222072701951597</v>
+        <v>0.0001222072701951712</v>
       </c>
       <c r="L56">
-        <v>0.1116752662332034</v>
+        <v>0.1116752662332097</v>
       </c>
       <c r="M56">
-        <v>772.7622627628111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.1116744431702144</v>
+      </c>
+      <c r="N56">
+        <v>772.7622627628469</v>
+      </c>
+      <c r="O56">
+        <v>8.230629953214255E-07</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>98.33497065594015</v>
+        <v>98.33497065593714</v>
       </c>
       <c r="B57">
-        <v>484483.9723792539</v>
+        <v>484483.9723791393</v>
       </c>
       <c r="C57">
-        <v>673.9261456501999</v>
+        <v>673.9261456500457</v>
       </c>
       <c r="D57">
-        <v>25055.26156945473</v>
+        <v>25055.26156945526</v>
       </c>
       <c r="E57">
-        <v>5317.822665262984</v>
+        <v>5317.822665263127</v>
       </c>
       <c r="F57">
-        <v>4618.261557099378</v>
+        <v>4618.261557099525</v>
       </c>
       <c r="G57">
-        <v>6.159455648447053</v>
+        <v>6.159455648447261</v>
       </c>
       <c r="H57">
-        <v>33.33790333418165</v>
+        <v>33.33790333418046</v>
       </c>
       <c r="I57">
-        <v>5.683167134453263E-09</v>
+        <v>5.68316713445245E-09</v>
       </c>
       <c r="J57">
-        <v>4.590208380429651E-09</v>
+        <v>4.590208380429071E-09</v>
       </c>
       <c r="K57">
-        <v>0.0001188836133691278</v>
+        <v>0.0001188836133691392</v>
       </c>
       <c r="L57">
-        <v>0.1098137759624809</v>
+        <v>0.1098137759624874</v>
       </c>
       <c r="M57">
-        <v>762.1619049210522</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.1098129271007894</v>
+      </c>
+      <c r="N57">
+        <v>762.1619049210884</v>
+      </c>
+      <c r="O57">
+        <v>8.488616980123431E-07</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>99.20440329104011</v>
+        <v>99.20440329103704</v>
       </c>
       <c r="B58">
-        <v>517856.0398855726</v>
+        <v>517856.0398854607</v>
       </c>
       <c r="C58">
-        <v>718.7106061378089</v>
+        <v>718.7106061376611</v>
       </c>
       <c r="D58">
-        <v>24902.92233027127</v>
+        <v>24902.92233027181</v>
       </c>
       <c r="E58">
-        <v>5271.311273865644</v>
+        <v>5271.311273865796</v>
       </c>
       <c r="F58">
-        <v>4571.571413102234</v>
+        <v>4571.571413102387</v>
       </c>
       <c r="G58">
-        <v>6.11766300731647</v>
+        <v>6.117663007316628</v>
       </c>
       <c r="H58">
-        <v>33.70613373975926</v>
+        <v>33.70613373975785</v>
       </c>
       <c r="I58">
-        <v>5.924464488235123E-09</v>
+        <v>5.924464488234248E-09</v>
       </c>
       <c r="J58">
-        <v>4.760857302197538E-09</v>
+        <v>4.760857302196931E-09</v>
       </c>
       <c r="K58">
-        <v>0.00011566600611297</v>
+        <v>0.0001156660061129811</v>
       </c>
       <c r="L58">
-        <v>0.1079554261525676</v>
+        <v>0.107955426152574</v>
       </c>
       <c r="M58">
-        <v>751.5465588366634</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.1079545510860347</v>
+      </c>
+      <c r="N58">
+        <v>751.5465588367001</v>
+      </c>
+      <c r="O58">
+        <v>8.750665393563325E-07</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>100.07383592614</v>
+        <v>100.0738359261369</v>
       </c>
       <c r="B59">
-        <v>552879.4885870273</v>
+        <v>552879.4885868963</v>
       </c>
       <c r="C59">
-        <v>765.8107907748926</v>
+        <v>765.8107907747158</v>
       </c>
       <c r="D59">
-        <v>24748.88694843175</v>
+        <v>24748.88694843232</v>
       </c>
       <c r="E59">
-        <v>5223.783378700014</v>
+        <v>5223.783378700186</v>
       </c>
       <c r="F59">
-        <v>4524.169830037657</v>
+        <v>4524.169830037831</v>
       </c>
       <c r="G59">
-        <v>6.078742562818304</v>
+        <v>6.078742562818448</v>
       </c>
       <c r="H59">
-        <v>34.11400135700134</v>
+        <v>34.11400135699972</v>
       </c>
       <c r="I59">
-        <v>6.182468510751953E-09</v>
+        <v>6.182468510750967E-09</v>
       </c>
       <c r="J59">
-        <v>4.936116089445901E-09</v>
+        <v>4.936116089445257E-09</v>
       </c>
       <c r="K59">
-        <v>0.0001125467522596009</v>
+        <v>0.0001125467522596121</v>
       </c>
       <c r="L59">
-        <v>0.1061099743752552</v>
+        <v>0.1061099743752619</v>
       </c>
       <c r="M59">
-        <v>740.9118066432576</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.1061090727072956</v>
+      </c>
+      <c r="N59">
+        <v>740.9118066432966</v>
+      </c>
+      <c r="O59">
+        <v>9.016679662293636E-07</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>100.94326856124</v>
+        <v>100.9432685612368</v>
       </c>
       <c r="B60">
-        <v>589602.4925624586</v>
+        <v>589602.4925623183</v>
       </c>
       <c r="C60">
-        <v>815.3297912978657</v>
+        <v>815.3297912976757</v>
       </c>
       <c r="D60">
-        <v>24593.027808151</v>
+        <v>24593.02780815158</v>
       </c>
       <c r="E60">
-        <v>5175.186686073936</v>
+        <v>5175.186686074111</v>
       </c>
       <c r="F60">
-        <v>4476.015043177325</v>
+        <v>4476.015043177496</v>
       </c>
       <c r="G60">
-        <v>6.042487338235587</v>
+        <v>6.042487338235739</v>
       </c>
       <c r="H60">
-        <v>34.5622906579122</v>
+        <v>34.5622906579104</v>
       </c>
       <c r="I60">
-        <v>6.458719052940261E-09</v>
+        <v>6.45871905293921E-09</v>
       </c>
       <c r="J60">
-        <v>5.116088068168009E-09</v>
+        <v>5.116088068167336E-09</v>
       </c>
       <c r="K60">
-        <v>0.0001095189254261831</v>
+        <v>0.000109518925426194</v>
       </c>
       <c r="L60">
-        <v>0.1042853200463232</v>
+        <v>0.1042853200463299</v>
       </c>
       <c r="M60">
-        <v>730.2533751919331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.1042843913887191</v>
+      </c>
+      <c r="N60">
+        <v>730.2533751919716</v>
+      </c>
+      <c r="O60">
+        <v>9.286576107874935E-07</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>101.8127011963399</v>
+        <v>101.8127011963367</v>
       </c>
       <c r="B61">
-        <v>628073.6403218496</v>
+        <v>628073.6403216963</v>
       </c>
       <c r="C61">
-        <v>867.3773513792996</v>
+        <v>867.3773513790896</v>
       </c>
       <c r="D61">
-        <v>24435.21375686891</v>
+        <v>24435.2137568695</v>
       </c>
       <c r="E61">
-        <v>5125.466916014383</v>
+        <v>5125.46691601458</v>
       </c>
       <c r="F61">
-        <v>4427.063972091962</v>
+        <v>4427.063972092153</v>
       </c>
       <c r="G61">
-        <v>6.008717211607308</v>
+        <v>6.008717211607482</v>
       </c>
       <c r="H61">
-        <v>35.05198043094847</v>
+        <v>35.05198043094661</v>
       </c>
       <c r="I61">
-        <v>6.754932255011309E-09</v>
+        <v>6.754932255010188E-09</v>
       </c>
       <c r="J61">
-        <v>5.300893198548435E-09</v>
+        <v>5.300893198547739E-09</v>
       </c>
       <c r="K61">
-        <v>0.0001065762984298336</v>
+        <v>0.0001065762984298444</v>
       </c>
       <c r="L61">
-        <v>0.1024873315076882</v>
+        <v>0.1024873315076948</v>
       </c>
       <c r="M61">
-        <v>719.5671403258391</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.1024863754792505</v>
+      </c>
+      <c r="N61">
+        <v>719.5671403258774</v>
+      </c>
+      <c r="O61">
+        <v>9.560284442791714E-07</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>102.6821338314399</v>
+        <v>102.6821338314366</v>
       </c>
       <c r="B62">
-        <v>668341.965002941</v>
+        <v>668341.9650027883</v>
       </c>
       <c r="C62">
-        <v>922.070679563069</v>
+        <v>922.0706795628623</v>
       </c>
       <c r="D62">
-        <v>24275.30971404801</v>
+        <v>24275.30971404864</v>
       </c>
       <c r="E62">
-        <v>5074.567424935079</v>
+        <v>5074.567424935272</v>
       </c>
       <c r="F62">
-        <v>4377.271922576056</v>
+        <v>4377.271922576248</v>
       </c>
       <c r="G62">
-        <v>5.977277445070484</v>
+        <v>5.977277445070663</v>
       </c>
       <c r="H62">
-        <v>35.58425372334631</v>
+        <v>35.58425372334416</v>
       </c>
       <c r="I62">
-        <v>7.07302483094618E-09</v>
+        <v>7.073024830944889E-09</v>
       </c>
       <c r="J62">
-        <v>5.490669981955475E-09</v>
+        <v>5.490669981954733E-09</v>
       </c>
       <c r="K62">
-        <v>0.0001037132787161255</v>
+        <v>0.0001037132787161366</v>
       </c>
       <c r="L62">
-        <v>0.1007198477186498</v>
+        <v>0.1007198477186566</v>
       </c>
       <c r="M62">
-        <v>708.8491289300831</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.1007188639437359</v>
+      </c>
+      <c r="N62">
+        <v>708.8491289301246</v>
+      </c>
+      <c r="O62">
+        <v>9.837749207139019E-07</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>103.5515664665398</v>
+        <v>103.5515664665365</v>
       </c>
       <c r="B63">
-        <v>710456.9837604973</v>
+        <v>710456.9837603212</v>
       </c>
       <c r="C63">
-        <v>979.5353880985399</v>
+        <v>979.5353880982957</v>
       </c>
       <c r="D63">
-        <v>24113.1762671641</v>
+        <v>24113.17626716472</v>
       </c>
       <c r="E63">
-        <v>5022.428792458963</v>
+        <v>5022.428792459173</v>
       </c>
       <c r="F63">
-        <v>4326.592260641072</v>
+        <v>4326.592260641268</v>
       </c>
       <c r="G63">
-        <v>5.948037437680711</v>
+        <v>5.948037437680884</v>
       </c>
       <c r="H63">
-        <v>36.16051035411583</v>
+        <v>36.16051035411364</v>
       </c>
       <c r="I63">
-        <v>7.41514232509972E-09</v>
+        <v>7.415142325098391E-09</v>
       </c>
       <c r="J63">
-        <v>5.685577450145257E-09</v>
+        <v>5.685577450144502E-09</v>
       </c>
       <c r="K63">
-        <v>0.0001009248488138409</v>
+        <v>0.0001009248488138514</v>
       </c>
       <c r="L63">
-        <v>0.09898482037525892</v>
+        <v>0.09898482037526546</v>
       </c>
       <c r="M63">
-        <v>698.0955188257582</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.0989838084821559</v>
+      </c>
+      <c r="N63">
+        <v>698.0955188257977</v>
+      </c>
+      <c r="O63">
+        <v>1.011893109552163E-06</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>104.4209991016398</v>
+        <v>104.4209991016364</v>
       </c>
       <c r="B64">
-        <v>754468.7476869877</v>
+        <v>754468.7476868159</v>
       </c>
       <c r="C64">
-        <v>1039.906579251502</v>
+        <v>1039.906579251268</v>
       </c>
       <c r="D64">
-        <v>23948.66925306591</v>
+        <v>23948.66925306656</v>
       </c>
       <c r="E64">
-        <v>4968.988367126284</v>
+        <v>4968.988367126482</v>
       </c>
       <c r="F64">
-        <v>4274.976053890474</v>
+        <v>4274.976053890668</v>
       </c>
       <c r="G64">
-        <v>5.920889690324518</v>
+        <v>5.920889690324588</v>
       </c>
       <c r="H64">
-        <v>36.78238242868587</v>
+        <v>36.78238242868325</v>
       </c>
       <c r="I64">
-        <v>7.783692112260061E-09</v>
+        <v>7.783692112258552E-09</v>
       </c>
       <c r="J64">
-        <v>5.885797247377438E-09</v>
+        <v>5.885797247376642E-09</v>
       </c>
       <c r="K64">
-        <v>9.820651103768518E-05</v>
+        <v>9.820651103769574E-05</v>
       </c>
       <c r="L64">
-        <v>0.09728255087865739</v>
+        <v>0.09728255087866403</v>
       </c>
       <c r="M64">
-        <v>687.3026365385725</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.09728151049784738</v>
+      </c>
+      <c r="N64">
+        <v>687.3026365386153</v>
+      </c>
+      <c r="O64">
+        <v>1.04038081665532E-06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>105.2904317367397</v>
+        <v>105.2904317367363</v>
       </c>
       <c r="B65">
-        <v>800427.9037892582</v>
+        <v>800427.9037890785</v>
       </c>
       <c r="C65">
-        <v>1103.330104607938</v>
+        <v>1103.330104607691</v>
       </c>
       <c r="D65">
-        <v>23781.63932250528</v>
+        <v>23781.63932250595</v>
       </c>
       <c r="E65">
-        <v>4914.179765032013</v>
+        <v>4914.179765032226</v>
       </c>
       <c r="F65">
-        <v>4222.37167492584</v>
+        <v>4222.371674926043</v>
       </c>
       <c r="G65">
-        <v>5.895748972369054</v>
+        <v>5.895748972369193</v>
       </c>
       <c r="H65">
-        <v>37.45175341109298</v>
+        <v>37.45175341109029</v>
       </c>
       <c r="I65">
-        <v>8.181382090192793E-09</v>
+        <v>8.181382090191153E-09</v>
       </c>
       <c r="J65">
-        <v>6.09153581866683E-09</v>
+        <v>6.091535818666005E-09</v>
       </c>
       <c r="K65">
-        <v>9.555423583569331E-05</v>
+        <v>9.555423583570367E-05</v>
       </c>
       <c r="L65">
-        <v>0.09561197628548353</v>
+        <v>0.09561197628549013</v>
       </c>
       <c r="M65">
-        <v>676.4669529327864</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.09561090704779729</v>
+      </c>
+      <c r="N65">
+        <v>676.4669529328293</v>
+      </c>
+      <c r="O65">
+        <v>1.069237692843296E-06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>106.1598643718397</v>
+        <v>106.1598643718362</v>
       </c>
       <c r="B66">
-        <v>848385.7707524167</v>
+        <v>848385.7707522095</v>
       </c>
       <c r="C66">
-        <v>1169.964027604546</v>
+        <v>1169.964027604253</v>
       </c>
       <c r="D66">
-        <v>23611.93148510349</v>
+        <v>23611.93148510417</v>
       </c>
       <c r="E66">
-        <v>4857.932314607326</v>
+        <v>4857.932314607575</v>
       </c>
       <c r="F66">
-        <v>4168.72436062236</v>
+        <v>4168.724360622595</v>
       </c>
       <c r="G66">
-        <v>5.872551680701384</v>
+        <v>5.872551680701457</v>
       </c>
       <c r="H66">
-        <v>38.17078147008569</v>
+        <v>38.17078147008272</v>
       </c>
       <c r="I66">
-        <v>8.611266239474859E-09</v>
+        <v>8.611266239473074E-09</v>
       </c>
       <c r="J66">
-        <v>6.303026720216993E-09</v>
+        <v>6.303026720216134E-09</v>
       </c>
       <c r="K66">
-        <v>9.296441332335773E-05</v>
+        <v>9.296441332336804E-05</v>
       </c>
       <c r="L66">
-        <v>0.09397096590593476</v>
+        <v>0.09397096590594126</v>
       </c>
       <c r="M66">
-        <v>665.5850766613025</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.09396986744061187</v>
+      </c>
+      <c r="N66">
+        <v>665.5850766613463</v>
+      </c>
+      <c r="O66">
+        <v>1.098465329388254E-06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>107.0292970069396</v>
+        <v>107.0292970069361</v>
       </c>
       <c r="B67">
-        <v>898394.4304541623</v>
+        <v>898394.4304539463</v>
       </c>
       <c r="C67">
-        <v>1239.980325190808</v>
+        <v>1239.980325190501</v>
       </c>
       <c r="D67">
-        <v>23439.38463127065</v>
+        <v>23439.38463127136</v>
       </c>
       <c r="E67">
-        <v>4800.170439761255</v>
+        <v>4800.170439761511</v>
       </c>
       <c r="F67">
-        <v>4113.975720123715</v>
+        <v>4113.975720123955</v>
       </c>
       <c r="G67">
-        <v>5.851255382815914</v>
+        <v>5.851255382816</v>
       </c>
       <c r="H67">
-        <v>38.94192802250006</v>
+        <v>38.94192802249685</v>
       </c>
       <c r="I67">
-        <v>9.076798514247649E-09</v>
+        <v>9.076798514245651E-09</v>
       </c>
       <c r="J67">
-        <v>6.520533071310028E-09</v>
+        <v>6.520533071309117E-09</v>
       </c>
       <c r="K67">
-        <v>9.043380766564932E-05</v>
+        <v>9.043380766565961E-05</v>
       </c>
       <c r="L67">
-        <v>0.09235660147151123</v>
+        <v>0.09235660147151784</v>
       </c>
       <c r="M67">
-        <v>654.6537453442152</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.09235547340417799</v>
+      </c>
+      <c r="N67">
+        <v>654.6537453442608</v>
+      </c>
+      <c r="O67">
+        <v>1.128067339838257E-06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>107.8987296420396</v>
+        <v>107.898729642036</v>
       </c>
       <c r="B68">
-        <v>950506.8374499201</v>
+        <v>950506.8374497036</v>
       </c>
       <c r="C68">
-        <v>1313.56687135069</v>
+        <v>1313.566871350385</v>
       </c>
       <c r="D68">
-        <v>23263.83102655738</v>
+        <v>23263.83102655811</v>
       </c>
       <c r="E68">
-        <v>4740.812972402699</v>
+        <v>4740.812972402945</v>
       </c>
       <c r="F68">
-        <v>4058.063183201239</v>
+        <v>4058.063183201466</v>
       </c>
       <c r="G68">
-        <v>5.831838536525916</v>
+        <v>5.831838536526047</v>
       </c>
       <c r="H68">
-        <v>39.76799266510317</v>
+        <v>39.76799266509988</v>
       </c>
       <c r="I68">
-        <v>9.581896899603762E-09</v>
+        <v>9.581896899601608E-09</v>
       </c>
       <c r="J68">
-        <v>6.744350170718084E-09</v>
+        <v>6.744350170717139E-09</v>
       </c>
       <c r="K68">
-        <v>8.795951406434508E-05</v>
+        <v>8.795951406435517E-05</v>
       </c>
       <c r="L68">
-        <v>0.09076542531510212</v>
+        <v>0.09076542531510867</v>
       </c>
       <c r="M68">
-        <v>643.6698143526113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.09076426726568115</v>
+      </c>
+      <c r="N68">
+        <v>643.6698143526564</v>
+      </c>
+      <c r="O68">
+        <v>1.158049427525065E-06</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>108.7681622771395</v>
+        <v>108.7681622771359</v>
       </c>
       <c r="B69">
-        <v>1004776.948930539</v>
+        <v>1004776.948930305</v>
       </c>
       <c r="C69">
-        <v>1390.929753422904</v>
+        <v>1390.929753422568</v>
       </c>
       <c r="D69">
-        <v>23085.09577250059</v>
+        <v>23085.09577250135</v>
       </c>
       <c r="E69">
-        <v>4679.772383948208</v>
+        <v>4679.772383948471</v>
       </c>
       <c r="F69">
-        <v>4000.919379165919</v>
+        <v>4000.919379166162</v>
       </c>
       <c r="G69">
-        <v>5.814300379708099</v>
+        <v>5.81430037970822</v>
       </c>
       <c r="H69">
-        <v>40.65215603382438</v>
+        <v>40.65215603382055</v>
       </c>
       <c r="I69">
-        <v>1.013101995409756E-08</v>
+        <v>1.013101995409513E-08</v>
       </c>
       <c r="J69">
-        <v>6.974808305263857E-09</v>
+        <v>6.974808305262865E-09</v>
       </c>
       <c r="K69">
-        <v>8.553891818446827E-05</v>
+        <v>8.553891818447846E-05</v>
       </c>
       <c r="L69">
-        <v>0.0891936506200563</v>
+        <v>0.08919365062006292</v>
       </c>
       <c r="M69">
-        <v>632.6302430444147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.08919246220062479</v>
+      </c>
+      <c r="N69">
+        <v>632.6302430444614</v>
+      </c>
+      <c r="O69">
+        <v>1.188419438117478E-06</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>109.6375949122395</v>
+        <v>109.6375949122357</v>
       </c>
       <c r="B70">
-        <v>1061259.87796204</v>
+        <v>1061259.877961786</v>
       </c>
       <c r="C70">
-        <v>1472.295982032658</v>
+        <v>1472.295982032286</v>
       </c>
       <c r="D70">
-        <v>22902.99622610999</v>
+        <v>22902.99622611079</v>
       </c>
       <c r="E70">
-        <v>4616.953923770638</v>
+        <v>4616.953923770925</v>
       </c>
       <c r="F70">
-        <v>3942.471434772958</v>
+        <v>3942.471434773225</v>
       </c>
       <c r="G70">
-        <v>5.798660984224179</v>
+        <v>5.798660984224282</v>
       </c>
       <c r="H70">
-        <v>41.59803258215832</v>
+        <v>41.59803258215408</v>
       </c>
       <c r="I70">
-        <v>1.07292587868792E-08</v>
+        <v>1.072925878687648E-08</v>
       </c>
       <c r="J70">
-        <v>7.212275783771758E-09</v>
+        <v>7.212275783770704E-09</v>
       </c>
       <c r="K70">
-        <v>8.316965791283734E-05</v>
+        <v>8.316965791284751E-05</v>
       </c>
       <c r="L70">
-        <v>0.08763733460744044</v>
+        <v>0.0876373346074472</v>
       </c>
       <c r="M70">
-        <v>621.5320782774777</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.08763611542005066</v>
+      </c>
+      <c r="N70">
+        <v>621.532078277526</v>
+      </c>
+      <c r="O70">
+        <v>1.219187396544936E-06</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>110.5070275473394</v>
+        <v>110.5070275473357</v>
       </c>
       <c r="B71">
-        <v>1120012.073139307</v>
+        <v>1120012.073139057</v>
       </c>
       <c r="C71">
-        <v>1557.91666726352</v>
+        <v>1557.916667263158</v>
       </c>
       <c r="D71">
-        <v>22717.34136757464</v>
+        <v>22717.34136757548</v>
       </c>
       <c r="E71">
-        <v>4552.254650673893</v>
+        <v>4552.254650674164</v>
       </c>
       <c r="F71">
-        <v>3882.64017749442</v>
+        <v>3882.640177494676</v>
       </c>
       <c r="G71">
-        <v>5.784961468792168</v>
+        <v>5.78496146879217</v>
       </c>
       <c r="H71">
-        <v>42.60973586232846</v>
+        <v>42.60973586232363</v>
       </c>
       <c r="I71">
-        <v>1.138244824995741E-08</v>
+        <v>1.138244824995431E-08</v>
       </c>
       <c r="J71">
-        <v>7.45716223669925E-09</v>
+        <v>7.457162236698143E-09</v>
       </c>
       <c r="K71">
-        <v>8.084958738595931E-05</v>
+        <v>8.08495873859696E-05</v>
       </c>
       <c r="L71">
-        <v>0.08609251956129126</v>
+        <v>0.08609251956129817</v>
       </c>
       <c r="M71">
-        <v>610.3724350156558</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.08609126919577054</v>
+      </c>
+      <c r="N71">
+        <v>610.3724350157071</v>
+      </c>
+      <c r="O71">
+        <v>1.250365527629971E-06</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>111.3764601824394</v>
+        <v>111.3764601824355</v>
       </c>
       <c r="B72">
-        <v>1181091.528116016</v>
+        <v>1181091.528115747</v>
       </c>
       <c r="C72">
-        <v>1648.070747745519</v>
+        <v>1648.070747745122</v>
       </c>
       <c r="D72">
-        <v>22527.93110236181</v>
+        <v>22527.93110236264</v>
       </c>
       <c r="E72">
-        <v>4485.56234144036</v>
+        <v>4485.562341440666</v>
       </c>
       <c r="F72">
-        <v>3821.33922814987</v>
+        <v>3821.339228150149</v>
       </c>
       <c r="G72">
-        <v>5.773264366109721</v>
+        <v>5.773264366109751</v>
       </c>
       <c r="H72">
-        <v>43.69195966902069</v>
+        <v>43.69195966901579</v>
       </c>
       <c r="I72">
-        <v>1.209730222898378E-08</v>
+        <v>1.209730222898051E-08</v>
       </c>
       <c r="J72">
-        <v>7.709922230723481E-09</v>
+        <v>7.709922230722349E-09</v>
       </c>
       <c r="K72">
-        <v>7.857674325574563E-05</v>
+        <v>7.857674325575545E-05</v>
       </c>
       <c r="L72">
-        <v>0.08455534834513816</v>
+        <v>0.0845553483451448</v>
       </c>
       <c r="M72">
-        <v>599.1484738515185</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.08455406637688505</v>
+      </c>
+      <c r="N72">
+        <v>599.1484738515678</v>
+      </c>
+      <c r="O72">
+        <v>1.281968259751661E-06</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>112.2458928175393</v>
+        <v>112.2458928175354</v>
       </c>
       <c r="B73">
-        <v>1244558.024781931</v>
+        <v>1244558.024781627</v>
       </c>
       <c r="C73">
-        <v>1743.069375815822</v>
+        <v>1743.069375815357</v>
       </c>
       <c r="D73">
-        <v>22334.55547938866</v>
+        <v>22334.55547938953</v>
       </c>
       <c r="E73">
-        <v>4416.754258427851</v>
+        <v>4416.754258428178</v>
       </c>
       <c r="F73">
-        <v>3758.473964223609</v>
+        <v>3758.473964223903</v>
       </c>
       <c r="G73">
-        <v>5.763654140020786</v>
+        <v>5.763654140020836</v>
       </c>
       <c r="H73">
-        <v>44.85007942806729</v>
+        <v>44.85007942806199</v>
       </c>
       <c r="I73">
-        <v>1.288157939147843E-08</v>
+        <v>1.28815793914748E-08</v>
       </c>
       <c r="J73">
-        <v>7.971059259163244E-09</v>
+        <v>7.97105925916206E-09</v>
       </c>
       <c r="K73">
-        <v>7.634931318125805E-05</v>
+        <v>7.634931318126786E-05</v>
       </c>
       <c r="L73">
-        <v>0.08302216119201168</v>
+        <v>0.08302216119201848</v>
       </c>
       <c r="M73">
-        <v>587.8573752999728</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.08302084717980752</v>
+      </c>
+      <c r="N73">
+        <v>587.8573753000228</v>
+      </c>
+      <c r="O73">
+        <v>1.314012210960862E-06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>113.1153254526393</v>
+        <v>113.1153254526353</v>
       </c>
       <c r="B74">
-        <v>1310473.414107298</v>
+        <v>1310473.414106979</v>
       </c>
       <c r="C74">
-        <v>1843.261080856683</v>
+        <v>1843.261080856188</v>
       </c>
       <c r="D74">
-        <v>22136.9938010702</v>
+        <v>22136.9938010711</v>
       </c>
       <c r="E74">
-        <v>4345.695756357023</v>
+        <v>4345.695756357355</v>
       </c>
       <c r="F74">
-        <v>3693.940332390436</v>
+        <v>3693.940332390735</v>
       </c>
       <c r="G74">
-        <v>5.756237848997874</v>
+        <v>5.756237848997892</v>
       </c>
       <c r="H74">
-        <v>46.09027956643997</v>
+        <v>46.09027956643411</v>
       </c>
       <c r="I74">
-        <v>1.374428774199963E-08</v>
+        <v>1.374428774199554E-08</v>
       </c>
       <c r="J74">
-        <v>8.241130184244531E-09</v>
+        <v>8.241130184243296E-09</v>
       </c>
       <c r="K74">
-        <v>7.416560654411282E-05</v>
+        <v>7.41656065441226E-05</v>
       </c>
       <c r="L74">
-        <v>0.08148957965452296</v>
+        <v>0.08148957965452985</v>
       </c>
       <c r="M74">
-        <v>576.4963107781163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.08148823313837278</v>
+      </c>
+      <c r="N74">
+        <v>576.4963107781676</v>
+      </c>
+      <c r="O74">
+        <v>1.346516157071111E-06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>113.9847580877392</v>
+        <v>113.9847580877352</v>
       </c>
       <c r="B75">
-        <v>1378901.938787204</v>
+        <v>1378901.938786882</v>
       </c>
       <c r="C75">
-        <v>1949.037853962782</v>
+        <v>1949.037853962278</v>
       </c>
       <c r="D75">
-        <v>21935.01359339255</v>
+        <v>21935.01359339349</v>
       </c>
       <c r="E75">
-        <v>4272.238707327001</v>
+        <v>4272.238707327339</v>
       </c>
       <c r="F75">
-        <v>3627.623486111389</v>
+        <v>3627.623486111694</v>
       </c>
       <c r="G75">
-        <v>5.751145952815182</v>
+        <v>5.751145952815265</v>
       </c>
       <c r="H75">
-        <v>47.41971440396414</v>
+        <v>47.41971440395782</v>
       </c>
       <c r="I75">
-        <v>1.469593904282357E-08</v>
+        <v>1.469593904281897E-08</v>
       </c>
       <c r="J75">
-        <v>8.520750227091904E-09</v>
+        <v>8.520750227090601E-09</v>
       </c>
       <c r="K75">
-        <v>7.202402738491783E-05</v>
+        <v>7.20240273849275E-05</v>
       </c>
       <c r="L75">
-        <v>0.07995458214506988</v>
+        <v>0.07995458214507691</v>
       </c>
       <c r="M75">
-        <v>565.0624102853145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.07995320264409543</v>
+      </c>
+      <c r="N75">
+        <v>565.0624102853667</v>
+      </c>
+      <c r="O75">
+        <v>1.37950098148058E-06</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>114.8541907228392</v>
+        <v>114.8541907228351</v>
       </c>
       <c r="B76">
-        <v>1449910.601677556</v>
+        <v>1449910.601677244</v>
       </c>
       <c r="C76">
-        <v>2060.842319109627</v>
+        <v>2060.842319109147</v>
       </c>
       <c r="D76">
-        <v>21728.36939423893</v>
+        <v>21728.36939423991</v>
       </c>
       <c r="E76">
-        <v>4196.219723587034</v>
+        <v>4196.219723587374</v>
       </c>
       <c r="F76">
-        <v>3559.396222201363</v>
+        <v>3559.396222201672</v>
       </c>
       <c r="G76">
-        <v>5.748533260158796</v>
+        <v>5.748533260158868</v>
       </c>
       <c r="H76">
-        <v>48.84671252892181</v>
+        <v>48.84671252891486</v>
       </c>
       <c r="I76">
-        <v>1.574886787983279E-08</v>
+        <v>1.574886787982756E-08</v>
       </c>
       <c r="J76">
-        <v>8.810598627581262E-09</v>
+        <v>8.810598627579876E-09</v>
       </c>
       <c r="K76">
-        <v>6.992304954843735E-05</v>
+        <v>6.992304954844712E-05</v>
       </c>
       <c r="L76">
-        <v>0.07841457379843843</v>
+        <v>0.07841457379844567</v>
       </c>
       <c r="M76">
-        <v>553.5527269425808</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.0784131608088388</v>
+      </c>
+      <c r="N76">
+        <v>553.5527269426348</v>
+      </c>
+      <c r="O76">
+        <v>1.412989606881081E-06</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>115.7236233579391</v>
+        <v>115.723623357935</v>
       </c>
       <c r="B77">
-        <v>1523569.583419682</v>
+        <v>1523569.583419354</v>
       </c>
       <c r="C77">
-        <v>2179.176176430987</v>
+        <v>2179.176176430472</v>
       </c>
       <c r="D77">
-        <v>21516.80130534729</v>
+        <v>21516.80130534832</v>
       </c>
       <c r="E77">
-        <v>4117.45816114741</v>
+        <v>4117.45816114777</v>
       </c>
       <c r="F77">
-        <v>3489.117190025907</v>
+        <v>3489.117190026232</v>
       </c>
       <c r="G77">
-        <v>5.748580016293067</v>
+        <v>5.748580016292994</v>
       </c>
       <c r="H77">
-        <v>50.38103790030677</v>
+        <v>50.38103790029904</v>
       </c>
       <c r="I77">
-        <v>1.691763531549724E-08</v>
+        <v>1.691763531549128E-08</v>
       </c>
       <c r="J77">
-        <v>9.111425131058378E-09</v>
+        <v>9.111425131056903E-09</v>
       </c>
       <c r="K77">
-        <v>6.786119400547316E-05</v>
+        <v>6.786119400548303E-05</v>
       </c>
       <c r="L77">
-        <v>0.07686745165467117</v>
+        <v>0.07686745165467866</v>
       </c>
       <c r="M77">
-        <v>541.9641987487129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.07686600464776915</v>
+      </c>
+      <c r="N77">
+        <v>541.9641987487698</v>
+      </c>
+      <c r="O77">
+        <v>1.447006909515925E-06</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>116.5930559930391</v>
+        <v>116.5930559930349</v>
       </c>
       <c r="B78">
-        <v>1599952.711289232</v>
+        <v>1599952.711288822</v>
       </c>
       <c r="C78">
-        <v>2304.610116978268</v>
+        <v>2304.610116977564</v>
       </c>
       <c r="D78">
-        <v>21300.03323662292</v>
+        <v>21300.03323662395</v>
       </c>
       <c r="E78">
-        <v>4035.753896361871</v>
+        <v>4035.753896362295</v>
       </c>
       <c r="F78">
-        <v>3416.628850216341</v>
+        <v>3416.628850216711</v>
       </c>
       <c r="G78">
-        <v>5.751493132139843</v>
+        <v>5.751493132139777</v>
       </c>
       <c r="H78">
-        <v>52.03422541146397</v>
+        <v>52.03422541145576</v>
       </c>
       <c r="I78">
-        <v>1.821954430901087E-08</v>
+        <v>1.82195443090044E-08</v>
       </c>
       <c r="J78">
-        <v>9.424057505475561E-09</v>
+        <v>9.424057505474057E-09</v>
       </c>
       <c r="K78">
-        <v>6.583700828822362E-05</v>
+        <v>6.583700828823303E-05</v>
       </c>
       <c r="L78">
-        <v>0.07531166451907914</v>
+        <v>0.0753116645190865</v>
       </c>
       <c r="M78">
-        <v>530.2936081665118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.07531018293946902</v>
+      </c>
+      <c r="N78">
+        <v>530.293608166567</v>
+      </c>
+      <c r="O78">
+        <v>1.481579617473287E-06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>117.462488628139</v>
+        <v>117.4624886281348</v>
       </c>
       <c r="B79">
-        <v>1679137.978671687</v>
+        <v>1679137.978671278</v>
       </c>
       <c r="C79">
-        <v>2437.795405894147</v>
+        <v>2437.795405893437</v>
       </c>
       <c r="D79">
-        <v>21077.7707498107</v>
+        <v>21077.77074981179</v>
       </c>
       <c r="E79">
-        <v>3950.884886100278</v>
+        <v>3950.884886100707</v>
       </c>
       <c r="F79">
-        <v>3341.755169482326</v>
+        <v>3341.7551694827</v>
       </c>
       <c r="G79">
-        <v>5.757507559747309</v>
+        <v>5.757507559747268</v>
       </c>
       <c r="H79">
-        <v>53.82001487855874</v>
+        <v>53.82001487854984</v>
       </c>
       <c r="I79">
-        <v>1.967530435149027E-08</v>
+        <v>1.967530435148286E-08</v>
       </c>
       <c r="J79">
-        <v>9.749410355031248E-09</v>
+        <v>9.749410355029645E-09</v>
       </c>
       <c r="K79">
-        <v>6.384904793011095E-05</v>
+        <v>6.384904793012045E-05</v>
       </c>
       <c r="L79">
-        <v>0.07374626539984101</v>
+        <v>0.07374626539984853</v>
       </c>
       <c r="M79">
-        <v>518.5375404621785</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.07374474866365295</v>
+      </c>
+      <c r="N79">
+        <v>518.5375404622354</v>
+      </c>
+      <c r="O79">
+        <v>1.516736195586453E-06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>118.331921263239</v>
+        <v>118.3319212632347</v>
       </c>
       <c r="B80">
-        <v>1761208.109870371</v>
+        <v>1761208.109869962</v>
       </c>
       <c r="C80">
-        <v>2579.477295206936</v>
+        <v>2579.47729520622</v>
       </c>
       <c r="D80">
-        <v>20849.69837989525</v>
+        <v>20849.69837989637</v>
       </c>
       <c r="E80">
-        <v>3862.604556320261</v>
+        <v>3862.604556320695</v>
       </c>
       <c r="F80">
-        <v>3264.299059172848</v>
+        <v>3264.299059173229</v>
       </c>
       <c r="G80">
-        <v>5.766887824939707</v>
+        <v>5.766887824939613</v>
       </c>
       <c r="H80">
-        <v>55.75491618057528</v>
+        <v>55.75491618056529</v>
       </c>
       <c r="I80">
-        <v>2.130989751709904E-08</v>
+        <v>2.130989751709053E-08</v>
       </c>
       <c r="J80">
-        <v>1.008849558109175E-08</v>
+        <v>1.008849558109008E-08</v>
       </c>
       <c r="K80">
-        <v>6.18958597353975E-05</v>
+        <v>6.189585973540689E-05</v>
       </c>
       <c r="L80">
-        <v>0.07217095322897903</v>
+        <v>0.07217095322898669</v>
       </c>
       <c r="M80">
-        <v>506.6923420657002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.07216940072226564</v>
+      </c>
+      <c r="N80">
+        <v>506.6923420657587</v>
+      </c>
+      <c r="O80">
+        <v>1.552506721043325E-06</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>119.2013538983389</v>
+        <v>119.2013538983346</v>
       </c>
       <c r="B81">
-        <v>1846251.156966212</v>
+        <v>1846251.156965748</v>
       </c>
       <c r="C81">
-        <v>2730.510328869611</v>
+        <v>2730.510328868749</v>
       </c>
       <c r="D81">
-        <v>20615.47627415248</v>
+        <v>20615.47627415365</v>
       </c>
       <c r="E81">
-        <v>3770.639123428204</v>
+        <v>3770.639123428702</v>
       </c>
       <c r="F81">
-        <v>3184.039605599944</v>
+        <v>3184.039605600372</v>
       </c>
       <c r="G81">
-        <v>5.779929737282738</v>
+        <v>5.779929737282671</v>
       </c>
       <c r="H81">
-        <v>57.85895081150576</v>
+        <v>57.85895081149498</v>
       </c>
       <c r="I81">
-        <v>2.315371962999825E-08</v>
+        <v>2.31537196299886E-08</v>
       </c>
       <c r="J81">
-        <v>1.044243495717358E-08</v>
+        <v>1.04424349571718E-08</v>
       </c>
       <c r="K81">
-        <v>5.997596660922402E-05</v>
+        <v>5.997596660923346E-05</v>
       </c>
       <c r="L81">
-        <v>0.07058609971389214</v>
+        <v>0.07058609971389999</v>
       </c>
       <c r="M81">
-        <v>494.7540805512699</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.07058451079114408</v>
+      </c>
+      <c r="N81">
+        <v>494.754080551329</v>
+      </c>
+      <c r="O81">
+        <v>1.588922755913474E-06</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>120.0707865334389</v>
+        <v>120.0707865334345</v>
       </c>
       <c r="B82">
-        <v>1934361.102298982</v>
+        <v>1934361.102298487</v>
       </c>
       <c r="C82">
-        <v>2891.875391739531</v>
+        <v>2891.875391738571</v>
       </c>
       <c r="D82">
-        <v>20374.73593584993</v>
+        <v>20374.73593585115</v>
       </c>
       <c r="E82">
-        <v>3674.68505221797</v>
+        <v>3674.685052218501</v>
       </c>
       <c r="F82">
-        <v>3100.729212081987</v>
+        <v>3100.729212082439</v>
       </c>
       <c r="G82">
-        <v>5.796962312550355</v>
+        <v>5.796962312550276</v>
       </c>
       <c r="H82">
-        <v>60.15663336548825</v>
+        <v>60.1566333654763</v>
       </c>
       <c r="I82">
-        <v>2.524410207375336E-08</v>
+        <v>2.524410207374227E-08</v>
       </c>
       <c r="J82">
-        <v>1.08124754460415E-08</v>
+        <v>1.081247544603961E-08</v>
       </c>
       <c r="K82">
-        <v>5.808785353961624E-05</v>
+        <v>5.808785353962562E-05</v>
       </c>
       <c r="L82">
-        <v>0.06899275671250396</v>
+        <v>0.06899275671251193</v>
       </c>
       <c r="M82">
-        <v>482.7185080526119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.06899113069528619</v>
+      </c>
+      <c r="N82">
+        <v>482.7185080526719</v>
+      </c>
+      <c r="O82">
+        <v>1.626017225737242E-06</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>120.9402191685388</v>
+        <v>120.9402191685344</v>
       </c>
       <c r="B83">
-        <v>2025638.419052098</v>
+        <v>2025638.419051669</v>
       </c>
       <c r="C83">
-        <v>3064.697951515728</v>
+        <v>3064.697951514943</v>
       </c>
       <c r="D83">
-        <v>20127.07478434743</v>
+        <v>20127.07478434872</v>
       </c>
       <c r="E83">
-        <v>3574.407013543269</v>
+        <v>3574.407013543758</v>
       </c>
       <c r="F83">
-        <v>3014.090894313109</v>
+        <v>3014.090894313541</v>
       </c>
       <c r="G83">
-        <v>5.818349967514941</v>
+        <v>5.81834996751483</v>
       </c>
       <c r="H83">
-        <v>62.67828362463174</v>
+        <v>62.67828362461795</v>
       </c>
       <c r="I83">
-        <v>2.762736772212106E-08</v>
+        <v>2.762736772210782E-08</v>
       </c>
       <c r="J83">
-        <v>1.120000811566331E-08</v>
+        <v>1.120000811566127E-08</v>
       </c>
       <c r="K83">
-        <v>5.622995411352244E-05</v>
+        <v>5.622995411353194E-05</v>
       </c>
       <c r="L83">
-        <v>0.06739263952240343</v>
+        <v>0.0673926395224117</v>
       </c>
       <c r="M83">
-        <v>470.5810298294325</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.06739097569809406</v>
+      </c>
+      <c r="N83">
+        <v>470.5810298294957</v>
+      </c>
+      <c r="O83">
+        <v>1.663824317634453E-06</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>121.8096518036388</v>
+        <v>121.8096518036343</v>
       </c>
       <c r="B84">
-        <v>2120190.509467625</v>
+        <v>2120190.509467117</v>
       </c>
       <c r="C84">
-        <v>3250.266228404969</v>
+        <v>3250.266228403946</v>
       </c>
       <c r="D84">
-        <v>19872.04913239264</v>
+        <v>19872.04913239397</v>
       </c>
       <c r="E84">
-        <v>3469.436949196302</v>
+        <v>3469.436949196861</v>
       </c>
       <c r="F84">
-        <v>2923.816166499028</v>
+        <v>2923.816166499505</v>
       </c>
       <c r="G84">
-        <v>5.844495087990225</v>
+        <v>5.844495087990112</v>
       </c>
       <c r="H84">
-        <v>65.4618011956199</v>
+        <v>65.4618011956052</v>
       </c>
       <c r="I84">
-        <v>3.036164816087879E-08</v>
+        <v>3.03616481608639E-08</v>
       </c>
       <c r="J84">
-        <v>1.160659184302655E-08</v>
+        <v>1.160659184302442E-08</v>
       </c>
       <c r="K84">
-        <v>5.440063662532681E-05</v>
+        <v>5.440063662533607E-05</v>
       </c>
       <c r="L84">
-        <v>0.0657880819232964</v>
+        <v>0.06578808192330458</v>
       </c>
       <c r="M84">
-        <v>458.3366789213324</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.06578637954388675</v>
+      </c>
+      <c r="N84">
+        <v>458.3366789213949</v>
+      </c>
+      <c r="O84">
+        <v>1.702379417834089E-06</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>122.6790844387387</v>
+        <v>122.6790844387342</v>
       </c>
       <c r="B85">
-        <v>2218131.890259087</v>
+        <v>2218131.890258542</v>
       </c>
       <c r="C85">
-        <v>3450.04683891253</v>
+        <v>3450.046838911369</v>
       </c>
       <c r="D85">
-        <v>19609.165011546</v>
+        <v>19609.16501154737</v>
       </c>
       <c r="E85">
-        <v>3359.375203623478</v>
+        <v>3359.375203624097</v>
       </c>
       <c r="F85">
-        <v>2829.564253095058</v>
+        <v>2829.56425309558</v>
       </c>
       <c r="G85">
-        <v>5.875841141131213</v>
+        <v>5.875841141131031</v>
       </c>
       <c r="H85">
-        <v>68.55509894932564</v>
+        <v>68.55509894930923</v>
       </c>
       <c r="I85">
-        <v>3.352080516575428E-08</v>
+        <v>3.352080516573702E-08</v>
       </c>
       <c r="J85">
-        <v>1.203398349148497E-08</v>
+        <v>1.203398349148271E-08</v>
       </c>
       <c r="K85">
-        <v>5.259818832514868E-05</v>
+        <v>5.259818832515787E-05</v>
       </c>
       <c r="L85">
-        <v>0.06418195963545864</v>
+        <v>0.06418195963546691</v>
       </c>
       <c r="M85">
-        <v>445.9800957135417</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.06418021791634822</v>
+      </c>
+      <c r="N85">
+        <v>445.980095713605</v>
+      </c>
+      <c r="O85">
+        <v>1.741719118701325E-06</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>123.5485170738387</v>
+        <v>123.548517073834</v>
       </c>
       <c r="B86">
-        <v>2319583.922178221</v>
+        <v>2319583.922177688</v>
       </c>
       <c r="C86">
-        <v>3665.69362306963</v>
+        <v>3665.693623068488</v>
       </c>
       <c r="D86">
-        <v>19337.86600772376</v>
+        <v>19337.86600772523</v>
       </c>
       <c r="E86">
-        <v>3243.795140832338</v>
+        <v>3243.795140832963</v>
       </c>
       <c r="F86">
-        <v>2730.963775622015</v>
+        <v>2730.963775622552</v>
       </c>
       <c r="G86">
-        <v>5.912876624449143</v>
+        <v>5.912876624448926</v>
       </c>
       <c r="H86">
-        <v>72.01949442765297</v>
+        <v>72.01949442763313</v>
       </c>
       <c r="I86">
-        <v>3.71999859917802E-08</v>
+        <v>3.719998599175882E-08</v>
       </c>
       <c r="J86">
-        <v>1.248417701268123E-08</v>
+        <v>1.248417701267876E-08</v>
       </c>
       <c r="K86">
-        <v>5.082079553462803E-05</v>
+        <v>5.082079553463749E-05</v>
       </c>
       <c r="L86">
-        <v>0.06257757987140085</v>
+        <v>0.06257757987140943</v>
       </c>
       <c r="M86">
-        <v>433.5055066913741</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.06257579799006745</v>
+      </c>
+      <c r="N86">
+        <v>433.5055066914414</v>
+      </c>
+      <c r="O86">
+        <v>1.781881341971571E-06</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>124.4179497089386</v>
+        <v>124.4179497089339</v>
       </c>
       <c r="B87">
-        <v>2424673.781800332</v>
+        <v>2424673.781799778</v>
       </c>
       <c r="C87">
-        <v>3899.042814346102</v>
+        <v>3899.042814344869</v>
       </c>
       <c r="D87">
-        <v>19057.51683175084</v>
+        <v>19057.5168317524</v>
       </c>
       <c r="E87">
-        <v>3122.253149828952</v>
+        <v>3122.253149829598</v>
       </c>
       <c r="F87">
-        <v>2627.618559238456</v>
+        <v>2627.618559239009</v>
       </c>
       <c r="G87">
-        <v>5.956140356392738</v>
+        <v>5.956140356392435</v>
       </c>
       <c r="H87">
-        <v>75.93452796807617</v>
+        <v>75.93452796805296</v>
       </c>
       <c r="I87">
-        <v>4.152365134727177E-08</v>
+        <v>4.152365134724575E-08</v>
       </c>
       <c r="J87">
-        <v>1.295945513924855E-08</v>
+        <v>1.295945513924589E-08</v>
       </c>
       <c r="K87">
-        <v>4.906651603615864E-05</v>
+        <v>4.90665160361682E-05</v>
       </c>
       <c r="L87">
-        <v>0.06097853555552264</v>
+        <v>0.0609785355555314</v>
       </c>
       <c r="M87">
-        <v>420.9066879108315</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.06097671264987896</v>
+      </c>
+      <c r="N87">
+        <v>420.906687910902</v>
+      </c>
+      <c r="O87">
+        <v>1.82290565244091E-06</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>125.2873823440385</v>
+        <v>125.2873823440338</v>
       </c>
       <c r="B88">
-        <v>2533532.253233539</v>
+        <v>2533532.253232921</v>
       </c>
       <c r="C88">
-        <v>4152.084820867694</v>
+        <v>4152.084820866193</v>
       </c>
       <c r="D88">
-        <v>18767.38062751724</v>
+        <v>18767.38062751884</v>
       </c>
       <c r="E88">
-        <v>2994.306180341896</v>
+        <v>2994.306180342627</v>
       </c>
       <c r="F88">
-        <v>2519.119599154179</v>
+        <v>2519.119599154794</v>
       </c>
       <c r="G88">
-        <v>6.006228983884097</v>
+        <v>6.006228983883871</v>
       </c>
       <c r="H88">
-        <v>80.40496489789375</v>
+        <v>80.40496489786818</v>
       </c>
       <c r="I88">
-        <v>4.665744433126508E-08</v>
+        <v>4.665744433123492E-08</v>
       </c>
       <c r="J88">
-        <v>1.346245931521957E-08</v>
+        <v>1.346245931521676E-08</v>
       </c>
       <c r="K88">
-        <v>4.73332380193954E-05</v>
+        <v>4.733323801940473E-05</v>
       </c>
       <c r="L88">
-        <v>0.05938852313271711</v>
+        <v>0.05938852313272568</v>
       </c>
       <c r="M88">
-        <v>408.1768831416324</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.05938665829884314</v>
+      </c>
+      <c r="N88">
+        <v>408.1768831417011</v>
+      </c>
+      <c r="O88">
+        <v>1.864833882539496E-06</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>126.1568149791385</v>
+        <v>126.1568149791337</v>
       </c>
       <c r="B89">
-        <v>2646289.803141668</v>
+        <v>2646289.803141057</v>
       </c>
       <c r="C89">
-        <v>4426.901149258843</v>
+        <v>4426.90114925736</v>
       </c>
       <c r="D89">
-        <v>18466.58682201385</v>
+        <v>18466.58682201555</v>
       </c>
       <c r="E89">
-        <v>2859.538288997435</v>
+        <v>2859.538288998173</v>
       </c>
       <c r="F89">
-        <v>2405.065033434421</v>
+        <v>2405.065033435051</v>
       </c>
       <c r="G89">
-        <v>6.06380821730199</v>
+        <v>6.063808217301687</v>
       </c>
       <c r="H89">
-        <v>85.57124780902717</v>
+        <v>85.57124780899642</v>
       </c>
       <c r="I89">
-        <v>5.282620762629627E-08</v>
+        <v>5.282620762625862E-08</v>
       </c>
       <c r="J89">
-        <v>1.399628680201866E-08</v>
+        <v>1.399628680201561E-08</v>
       </c>
       <c r="K89">
-        <v>4.561861653256206E-05</v>
+        <v>4.561861653257158E-05</v>
       </c>
       <c r="L89">
-        <v>0.05781112216050583</v>
+        <v>0.05781112216051455</v>
       </c>
       <c r="M89">
-        <v>395.3086210344097</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.05780921444925069</v>
+      </c>
+      <c r="N89">
+        <v>395.3086210344816</v>
+      </c>
+      <c r="O89">
+        <v>1.907711263854483E-06</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>127.0262476142385</v>
+        <v>127.0262476142336</v>
       </c>
       <c r="B90">
-        <v>2763070.363596196</v>
+        <v>2763070.363595518</v>
       </c>
       <c r="C90">
-        <v>4725.558066579223</v>
+        <v>4725.558066577414</v>
       </c>
       <c r="D90">
-        <v>18154.08433614665</v>
+        <v>18154.0843361484</v>
       </c>
       <c r="E90">
-        <v>2717.594892705885</v>
+        <v>2717.594892706703</v>
       </c>
       <c r="F90">
-        <v>2285.08818720951</v>
+        <v>2285.088187210195</v>
       </c>
       <c r="G90">
-        <v>6.129630363528726</v>
+        <v>6.129630363528338</v>
       </c>
       <c r="H90">
-        <v>91.62559669247771</v>
+        <v>91.62559669244233</v>
       </c>
       <c r="I90">
-        <v>6.034218962315439E-08</v>
+        <v>6.034218962310934E-08</v>
       </c>
       <c r="J90">
-        <v>1.456462944486836E-08</v>
+        <v>1.456462944486515E-08</v>
       </c>
       <c r="K90">
-        <v>4.391997326263408E-05</v>
+        <v>4.391997326264331E-05</v>
       </c>
       <c r="L90">
-        <v>0.0562495324854578</v>
+        <v>0.05624953248546629</v>
       </c>
       <c r="M90">
-        <v>382.29333671641</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.05624758089708357</v>
+      </c>
+      <c r="N90">
+        <v>382.2933367164812</v>
+      </c>
+      <c r="O90">
+        <v>1.951588382724853E-06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>127.8956802493384</v>
+        <v>127.8956802493335</v>
       </c>
       <c r="B91">
-        <v>2883982.419592867</v>
+        <v>2883982.419592111</v>
       </c>
       <c r="C91">
-        <v>5049.962954243237</v>
+        <v>5049.96295424101</v>
       </c>
       <c r="D91">
-        <v>17828.57171233488</v>
+        <v>17828.57171233667</v>
       </c>
       <c r="E91">
-        <v>2568.21685715094</v>
+        <v>2568.216857151871</v>
       </c>
       <c r="F91">
-        <v>2158.888871969538</v>
+        <v>2158.88887197031</v>
       </c>
       <c r="G91">
-        <v>6.204562426321101</v>
+        <v>6.204562426320625</v>
       </c>
       <c r="H91">
-        <v>98.83773556768034</v>
+        <v>98.83773556763963</v>
       </c>
       <c r="I91">
-        <v>6.965082570850614E-08</v>
+        <v>6.96508257084516E-08</v>
       </c>
       <c r="J91">
-        <v>1.517197801690962E-08</v>
+        <v>1.517197801690621E-08</v>
       </c>
       <c r="K91">
-        <v>4.223413787386403E-05</v>
+        <v>4.223413787387309E-05</v>
       </c>
       <c r="L91">
-        <v>0.05470626012760934</v>
+        <v>0.05470626012761762</v>
       </c>
       <c r="M91">
-        <v>369.1206501589552</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.05470426360315511</v>
+      </c>
+      <c r="N91">
+        <v>369.1206501590257</v>
+      </c>
+      <c r="O91">
+        <v>1.996524462520119E-06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>128.7651128844383</v>
+        <v>128.7651128844334</v>
       </c>
       <c r="B92">
-        <v>3009107.560094254</v>
+        <v>3009107.560093469</v>
       </c>
       <c r="C92">
-        <v>5401.722246584513</v>
+        <v>5401.722246582079</v>
       </c>
       <c r="D92">
-        <v>17488.39031624616</v>
+        <v>17488.39031624803</v>
       </c>
       <c r="E92">
-        <v>2411.25522486541</v>
+        <v>2411.255224866405</v>
       </c>
       <c r="F92">
-        <v>2026.253903151619</v>
+        <v>2026.253903152443</v>
       </c>
       <c r="G92">
-        <v>6.289631677960053</v>
+        <v>6.28963167795953</v>
       </c>
       <c r="H92">
-        <v>107.5977975450439</v>
+        <v>107.5977975449945</v>
       </c>
       <c r="I92">
-        <v>8.140827436986208E-08</v>
+        <v>8.140827436979335E-08</v>
       </c>
       <c r="J92">
-        <v>1.582393235552419E-08</v>
+        <v>1.582393235552053E-08</v>
       </c>
       <c r="K92">
-        <v>4.055719789107178E-05</v>
+        <v>4.055719789108074E-05</v>
       </c>
       <c r="L92">
-        <v>0.05318273496249577</v>
+        <v>0.05318273496250392</v>
       </c>
       <c r="M92">
-        <v>355.7770887928206</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.05318069236975111</v>
+      </c>
+      <c r="N92">
+        <v>355.7770887928909</v>
+      </c>
+      <c r="O92">
+        <v>2.042592752812854E-06</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>129.6345455195383</v>
+        <v>129.6345455195333</v>
       </c>
       <c r="B93">
-        <v>3138487.708111305</v>
+        <v>3138487.708110515</v>
       </c>
       <c r="C93">
-        <v>5782.091515679017</v>
+        <v>5782.091515676547</v>
       </c>
       <c r="D93">
-        <v>17131.35748382777</v>
+        <v>17131.35748382984</v>
       </c>
       <c r="E93">
-        <v>2246.633558496259</v>
+        <v>2246.633558497275</v>
       </c>
       <c r="F93">
-        <v>1887.040361434106</v>
+        <v>1887.04036143496</v>
       </c>
       <c r="G93">
-        <v>6.386099704625258</v>
+        <v>6.38609970462472</v>
       </c>
       <c r="H93">
-        <v>118.4915568991675</v>
+        <v>118.4915568990996</v>
       </c>
       <c r="I93">
-        <v>9.661952785502554E-08</v>
+        <v>9.661952785492827E-08</v>
       </c>
       <c r="J93">
-        <v>1.652768666107422E-08</v>
+        <v>1.652768666107007E-08</v>
       </c>
       <c r="K93">
-        <v>3.888410625749801E-05</v>
+        <v>3.888410625750745E-05</v>
       </c>
       <c r="L93">
-        <v>0.05167882903938313</v>
+        <v>0.0516788290393916</v>
       </c>
       <c r="M93">
-        <v>342.2439658965896</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.05167673915015722</v>
+      </c>
+      <c r="N93">
+        <v>342.2439658966659</v>
+      </c>
+      <c r="O93">
+        <v>2.089889234385942E-06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>130.5039781546382</v>
+        <v>130.5039781546332</v>
       </c>
       <c r="B94">
-        <v>3272113.571301547</v>
+        <v>3272113.571300703</v>
       </c>
       <c r="C94">
-        <v>6192.160597519027</v>
+        <v>6192.160597516174</v>
       </c>
       <c r="D94">
-        <v>16754.49901063493</v>
+        <v>16754.49901063709</v>
       </c>
       <c r="E94">
-        <v>2074.215729031524</v>
+        <v>2074.215729032637</v>
       </c>
       <c r="F94">
-        <v>1741.084927756669</v>
+        <v>1741.0849277576</v>
       </c>
       <c r="G94">
-        <v>6.495582903637341</v>
+        <v>6.495582903636762</v>
       </c>
       <c r="H94">
-        <v>132.4404839229722</v>
+        <v>132.4404839228861</v>
       </c>
       <c r="I94">
-        <v>1.16899831049176E-07</v>
+        <v>1.168998310490469E-07</v>
       </c>
       <c r="J94">
-        <v>1.729281514792186E-08</v>
+        <v>1.729281514791737E-08</v>
       </c>
       <c r="K94">
-        <v>3.720806196484003E-05</v>
+        <v>3.72080619648494E-05</v>
       </c>
       <c r="L94">
-        <v>0.05019221535219674</v>
+        <v>0.05019221535220503</v>
       </c>
       <c r="M94">
-        <v>328.4940098103572</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.05019007680559336</v>
+      </c>
+      <c r="N94">
+        <v>328.4940098104331</v>
+      </c>
+      <c r="O94">
+        <v>2.138546611670434E-06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>131.3734107897382</v>
+        <v>131.3734107897331</v>
       </c>
       <c r="B95">
-        <v>3409917.704992516</v>
+        <v>3409917.704991643</v>
       </c>
       <c r="C95">
-        <v>6633.439367170247</v>
+        <v>6633.439367167158</v>
       </c>
       <c r="D95">
-        <v>16353.60321409057</v>
+        <v>16353.60321409282</v>
       </c>
       <c r="E95">
-        <v>1893.538844750052</v>
+        <v>1893.538844751212</v>
       </c>
       <c r="F95">
-        <v>1588.000822333029</v>
+        <v>1588.000822333996</v>
       </c>
       <c r="G95">
-        <v>6.620251520899767</v>
+        <v>6.62025152089913</v>
       </c>
       <c r="H95">
-        <v>150.9824615089331</v>
+        <v>150.9824615088247</v>
       </c>
       <c r="I95">
-        <v>1.450081141881859E-07</v>
+        <v>1.450081141880136E-07</v>
       </c>
       <c r="J95">
-        <v>1.813260107589894E-08</v>
+        <v>1.813260107589411E-08</v>
       </c>
       <c r="K95">
-        <v>3.551950252141553E-05</v>
+        <v>3.551950252142469E-05</v>
       </c>
       <c r="L95">
-        <v>0.04871744003272939</v>
+        <v>0.04871744003273742</v>
       </c>
       <c r="M95">
-        <v>314.4860504961806</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.04871525127551567</v>
+      </c>
+      <c r="N95">
+        <v>314.4860504962548</v>
+      </c>
+      <c r="O95">
+        <v>2.188757221745797E-06</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>132.2428434248382</v>
+        <v>132.242843424833</v>
       </c>
       <c r="B96">
-        <v>3551775.005379839</v>
+        <v>3551775.005378898</v>
       </c>
       <c r="C96">
-        <v>7109.011852393062</v>
+        <v>7109.01185238934</v>
       </c>
       <c r="D96">
-        <v>15922.42983506509</v>
+        <v>15922.42983506754</v>
       </c>
       <c r="E96">
-        <v>1703.370880261381</v>
+        <v>1703.370880262696</v>
       </c>
       <c r="F96">
-        <v>1426.822428173448</v>
+        <v>1426.822428174542</v>
       </c>
       <c r="G96">
-        <v>6.763172967937284</v>
+        <v>6.763172967936506</v>
       </c>
       <c r="H96">
-        <v>176.8904330102337</v>
+        <v>176.8904330100728</v>
       </c>
       <c r="I96">
-        <v>1.860455960828243E-07</v>
+        <v>1.860455960825607E-07</v>
       </c>
       <c r="J96">
-        <v>1.906643017888856E-08</v>
+        <v>1.906643017888312E-08</v>
       </c>
       <c r="K96">
-        <v>3.380435296415683E-05</v>
+        <v>3.380435296416623E-05</v>
       </c>
       <c r="L96">
-        <v>0.04724441685342666</v>
+        <v>0.04724441685343477</v>
       </c>
       <c r="M96">
-        <v>300.156219568804</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.04724217604078244</v>
+      </c>
+      <c r="N96">
+        <v>300.1562195688807</v>
+      </c>
+      <c r="O96">
+        <v>2.240812652327207E-06</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>133.1122760599381</v>
+        <v>133.1122760599329</v>
       </c>
       <c r="B97">
-        <v>3697511.23237756</v>
+        <v>3697511.232376596</v>
       </c>
       <c r="C97">
-        <v>7625.549942350399</v>
+        <v>7625.549942346423</v>
       </c>
       <c r="D97">
-        <v>15451.16858224416</v>
+        <v>15451.1685822469</v>
       </c>
       <c r="E97">
-        <v>1500.992557659825</v>
+        <v>1500.992557661218</v>
       </c>
       <c r="F97">
-        <v>1255.411038733844</v>
+        <v>1255.411038735006</v>
       </c>
       <c r="G97">
-        <v>6.92895541472445</v>
+        <v>6.928955414723524</v>
       </c>
       <c r="H97">
-        <v>215.7214179153119</v>
+        <v>215.721417915058</v>
       </c>
       <c r="I97">
-        <v>2.50520939570667E-07</v>
+        <v>2.505209395702302E-07</v>
       </c>
       <c r="J97">
-        <v>2.012450999455877E-08</v>
+        <v>2.012450999455246E-08</v>
       </c>
       <c r="K97">
-        <v>3.204064532652099E-05</v>
+        <v>3.204064532653086E-05</v>
       </c>
       <c r="L97">
-        <v>0.04575562276089641</v>
+        <v>0.04575562276090481</v>
       </c>
       <c r="M97">
-        <v>285.4016119374276</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.04575332758157004</v>
+      </c>
+      <c r="N97">
+        <v>285.4016119375079</v>
+      </c>
+      <c r="O97">
+        <v>2.295179334768058E-06</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>133.981708695038</v>
+        <v>133.9817086950328</v>
       </c>
       <c r="B98">
-        <v>3846917.420759414</v>
+        <v>3846917.42075843</v>
       </c>
       <c r="C98">
-        <v>8197.167083352801</v>
+        <v>8197.167083348262</v>
       </c>
       <c r="D98">
-        <v>14923.00064275819</v>
+        <v>14923.00064276118</v>
       </c>
       <c r="E98">
-        <v>1280.826597691037</v>
+        <v>1280.826597692561</v>
       </c>
       <c r="F98">
-        <v>1069.312638577575</v>
+        <v>1069.312638578842</v>
       </c>
       <c r="G98">
-        <v>7.125124125298524</v>
+        <v>7.125124125297577</v>
       </c>
       <c r="H98">
-        <v>280.4713638577646</v>
+        <v>280.4713638573418</v>
       </c>
       <c r="I98">
-        <v>3.637790595102168E-07</v>
+        <v>3.637790595094448E-07</v>
       </c>
       <c r="J98">
-        <v>2.135848409512834E-08</v>
+        <v>2.13584840951211E-08</v>
       </c>
       <c r="K98">
-        <v>3.019097129037863E-05</v>
+        <v>3.019097129038868E-05</v>
       </c>
       <c r="L98">
-        <v>0.04421997973022462</v>
+        <v>0.04421997973023312</v>
       </c>
       <c r="M98">
-        <v>270.0444279712376</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.044217627064953</v>
+      </c>
+      <c r="N98">
+        <v>270.0444279713172</v>
+      </c>
+      <c r="O98">
+        <v>2.352665280115045E-06</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>134.851141330138</v>
+        <v>134.8511413301327</v>
       </c>
       <c r="B99">
-        <v>3999766.44232044</v>
+        <v>3999766.44231929</v>
       </c>
       <c r="C99">
-        <v>8855.061073458015</v>
+        <v>8855.061073450352</v>
       </c>
       <c r="D99">
-        <v>14304.69835619956</v>
+        <v>14304.69835620198</v>
       </c>
       <c r="E99">
-        <v>1030.9219228928</v>
+        <v>1030.92192289486</v>
       </c>
       <c r="F99">
-        <v>858.841301872944</v>
+        <v>858.841301874614</v>
       </c>
       <c r="G99">
-        <v>7.365722842804251</v>
+        <v>7.36572284280385</v>
       </c>
       <c r="H99">
-        <v>410.2315250891735</v>
+        <v>410.2315250887951</v>
       </c>
       <c r="I99">
-        <v>6.048277567748761E-07</v>
+        <v>6.048277567740363E-07</v>
       </c>
       <c r="J99">
-        <v>2.287063596012876E-08</v>
+        <v>2.287063596012236E-08</v>
       </c>
       <c r="K99">
-        <v>2.818174004218531E-05</v>
+        <v>2.818174004219263E-05</v>
       </c>
       <c r="L99">
-        <v>0.04257643863381433</v>
+        <v>0.04257643863382106</v>
       </c>
       <c r="M99">
-        <v>253.7334649897455</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.0425740237593951</v>
+      </c>
+      <c r="N99">
+        <v>253.7334649897928</v>
+      </c>
+      <c r="O99">
+        <v>2.414874425956912E-06</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>135.7205739652379</v>
+        <v>135.7205739652326</v>
       </c>
       <c r="B100">
-        <v>4155828.238820049</v>
+        <v>4155828.238819119</v>
       </c>
       <c r="C100">
-        <v>9684.53022712888</v>
+        <v>9684.530227124149</v>
       </c>
       <c r="D100">
-        <v>13509.66330777676</v>
+        <v>13509.66330778356</v>
       </c>
       <c r="E100">
-        <v>719.2351226871195</v>
+        <v>719.2351226892637</v>
       </c>
       <c r="F100">
-        <v>597.7337863424686</v>
+        <v>597.7337863442776</v>
       </c>
       <c r="G100">
-        <v>7.684800188970683</v>
+        <v>7.684800188967771</v>
       </c>
       <c r="H100">
-        <v>801.0844610622695</v>
+        <v>801.0844610561595</v>
       </c>
       <c r="I100">
-        <v>1.388459549039769E-06</v>
+        <v>1.388459549027273E-06</v>
       </c>
       <c r="J100">
-        <v>2.492950369362454E-08</v>
+        <v>2.49295036936065E-08</v>
       </c>
       <c r="K100">
-        <v>2.582113983202351E-05</v>
+        <v>2.582113983204276E-05</v>
       </c>
       <c r="L100">
-        <v>0.04067085000929984</v>
+        <v>0.04067085000931496</v>
       </c>
       <c r="M100">
-        <v>235.551914386566</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.04066836401385761</v>
+      </c>
+      <c r="N100">
+        <v>235.5519143867121</v>
+      </c>
+      <c r="O100">
+        <v>2.485995457344981E-06</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>136.5900066003379</v>
+        <v>136.5900066003325</v>
       </c>
       <c r="B101">
-        <v>4314880.773605477</v>
+        <v>4314880.774261012</v>
       </c>
       <c r="C101">
-        <v>11662.94192673045</v>
+        <v>11662.98914901435</v>
       </c>
       <c r="D101">
-        <v>11662.94192561064</v>
+        <v>11662.98914883278</v>
       </c>
       <c r="E101">
-        <v>-2.089983495253913E-07</v>
+        <v>-3.389048997939827E-08</v>
       </c>
       <c r="F101">
-        <v>-1.734771729082491E-07</v>
+        <v>-2.813016054386748E-08</v>
       </c>
       <c r="G101">
-        <v>8.381531941163093</v>
+        <v>8.3815163671905</v>
       </c>
       <c r="H101">
-        <v>2502880.56994036</v>
+        <v>2487105.644814059</v>
       </c>
       <c r="I101">
-        <v>0.00618644808610255</v>
+        <v>0.006147403686669599</v>
       </c>
       <c r="J101">
-        <v>3.030133673506024E-08</v>
+        <v>3.030118691142789E-08</v>
       </c>
       <c r="K101">
-        <v>2.115327385661576E-05</v>
+        <v>2.115338068868807E-05</v>
       </c>
       <c r="L101">
-        <v>0.03702815863431657</v>
+        <v>0.03702823769107584</v>
       </c>
       <c r="M101">
-        <v>206.0323128408607</v>
+        <v>0.03702562903499129</v>
+      </c>
+      <c r="N101">
+        <v>206.0328468791198</v>
+      </c>
+      <c r="O101">
+        <v>2.608656084546165E-06</v>
       </c>
     </row>
   </sheetData>
